--- a/SpermWhales/Encounter9_S.xlsx
+++ b/SpermWhales/Encounter9_S.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="See" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,21 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,12 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C905"/>
+  <dimension ref="A1:E655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -380,132 +365,133 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
         <v>43721.816155780813</v>
       </c>
       <c r="B2">
         <v>781.24701976776123</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <v>43721.816164823016</v>
       </c>
       <c r="B3">
         <v>750.97158551216125</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
         <v>43721.816173514817</v>
       </c>
       <c r="B4">
         <v>789.44452106952667</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
         <v>43721.816182651906</v>
       </c>
       <c r="B5">
         <v>868.40204894542694</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
         <v>43721.816192702856</v>
       </c>
       <c r="B6">
         <v>874.22579526901245</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
         <v>43721.81620282121</v>
       </c>
       <c r="B7">
         <v>953.46495509147644</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
         <v>43721.816213856684</v>
       </c>
       <c r="B8">
         <v>937.78409063816071</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
         <v>43721.816224710645</v>
       </c>
       <c r="B9">
         <v>903.63621711730957</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
         <v>43721.816235169419</v>
       </c>
       <c r="B10">
         <v>911.07934713363647</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
         <v>43721.816245714312</v>
       </c>
       <c r="B11">
         <v>911.57220304012299</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
         <v>43721.816256264923</v>
       </c>
       <c r="B12">
         <v>1046.9969362020493</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
         <v>43721.816268840921</v>
       </c>
       <c r="B13">
         <v>1638.3938491344452</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
         <v>43721.817074673832</v>
       </c>
       <c r="B14">
         <v>854.42103445529938</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
         <v>43721.817084562965</v>
       </c>
       <c r="B15">
         <v>843.15575659275055</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
         <v>43721.817094321712</v>
       </c>
       <c r="B16">
@@ -513,7 +499,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>43721.817103945417</v>
       </c>
       <c r="B17">
@@ -521,7 +507,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>43721.817113604862</v>
       </c>
       <c r="B18">
@@ -529,7 +515,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>43721.817123162095</v>
       </c>
       <c r="B19">
@@ -537,7 +523,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>43721.817132799537</v>
       </c>
       <c r="B20">
@@ -545,7 +531,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>43721.817142386921</v>
       </c>
       <c r="B21">
@@ -553,7 +539,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>43721.817152149975</v>
       </c>
       <c r="B22">
@@ -561,7 +547,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>43721.817161929328</v>
       </c>
       <c r="B23">
@@ -569,7 +555,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>43721.817171441973</v>
       </c>
       <c r="B24">
@@ -577,7 +563,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>43721.81718087534</v>
       </c>
       <c r="B25">
@@ -585,7 +571,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>43721.817190313828</v>
       </c>
       <c r="B26">
@@ -593,7 +579,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4">
+      <c r="A27" s="2">
         <v>43721.81719988992</v>
       </c>
       <c r="B27">
@@ -601,7 +587,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4">
+      <c r="A28" s="2">
         <v>43721.817209372297</v>
       </c>
       <c r="B28">
@@ -609,7 +595,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4">
+      <c r="A29" s="2">
         <v>43721.817537479801</v>
       </c>
       <c r="B29">
@@ -617,7 +603,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
+      <c r="A30" s="2">
         <v>43721.817546699778</v>
       </c>
       <c r="B30">
@@ -625,7 +611,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>43721.81755673117</v>
       </c>
       <c r="B31">
@@ -633,7 +619,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>43721.81759589375</v>
       </c>
       <c r="B32">
@@ -641,7 +627,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4">
+      <c r="A33" s="2">
         <v>43721.81760511233</v>
       </c>
       <c r="B33">
@@ -649,7 +635,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4">
+      <c r="A34" s="2">
         <v>43721.817624215379</v>
       </c>
       <c r="B34">
@@ -657,7 +643,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>43721.817633952363</v>
       </c>
       <c r="B35">
@@ -665,7 +651,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>43721.817644306808</v>
       </c>
       <c r="B36">
@@ -673,7 +659,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>43721.817655067309</v>
       </c>
       <c r="B37">
@@ -681,7 +667,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>43721.817665915005</v>
       </c>
       <c r="B38">
@@ -689,7 +675,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>43721.817677151645</v>
       </c>
       <c r="B39">
@@ -697,7 +683,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>43721.817689587704</v>
       </c>
       <c r="B40">
@@ -705,7 +691,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>43721.817705143243</v>
       </c>
       <c r="B41">
@@ -713,7 +699,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>43721.817723321612</v>
       </c>
       <c r="B42">
@@ -721,7 +707,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4">
+      <c r="A43" s="2">
         <v>43721.817745092325</v>
       </c>
       <c r="B43">
@@ -729,7 +715,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4">
+      <c r="A44" s="2">
         <v>43721.817765139858</v>
       </c>
       <c r="B44">
@@ -737,7 +723,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4">
+      <c r="A45" s="2">
         <v>43721.817781678517</v>
       </c>
       <c r="B45">
@@ -745,7 +731,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4">
+      <c r="A46" s="2">
         <v>43721.817796609481</v>
       </c>
       <c r="B46">
@@ -753,7 +739,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>43721.817810163018</v>
       </c>
       <c r="B47">
@@ -761,7 +747,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>43721.817823157529</v>
       </c>
       <c r="B48">
@@ -769,7 +755,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>43721.817836192786</v>
       </c>
       <c r="B49">
@@ -777,7 +763,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>43721.817894346314</v>
       </c>
       <c r="B50">
@@ -785,7 +771,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>43721.81790168467</v>
       </c>
       <c r="B51">
@@ -793,7 +779,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>43721.817908793455</v>
       </c>
       <c r="B52">
@@ -801,7 +787,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>43721.817921521026</v>
       </c>
       <c r="B53">
@@ -809,7 +795,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4">
+      <c r="A54" s="2">
         <v>43721.817933484097</v>
       </c>
       <c r="B54">
@@ -817,7 +803,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="4">
+      <c r="A55" s="2">
         <v>43721.817944625509</v>
       </c>
       <c r="B55">
@@ -825,7 +811,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4">
+      <c r="A56" s="2">
         <v>43721.817955177044</v>
       </c>
       <c r="B56">
@@ -833,7 +819,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>43721.817975399201</v>
       </c>
       <c r="B57">
@@ -841,7 +827,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>43721.817985472153</v>
       </c>
       <c r="B58">
@@ -849,7 +835,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>43721.817996234517</v>
       </c>
       <c r="B59">
@@ -857,7 +843,7 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>43721.818007706657</v>
       </c>
       <c r="B60">
@@ -865,7 +851,7 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>43721.81802022225</v>
       </c>
       <c r="B61">
@@ -873,7 +859,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="4">
+      <c r="A62" s="2">
         <v>43721.818034333177</v>
       </c>
       <c r="B62">
@@ -881,7 +867,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="4">
+      <c r="A63" s="2">
         <v>43721.818049481837</v>
       </c>
       <c r="B63">
@@ -889,7 +875,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="4">
+      <c r="A64" s="2">
         <v>43721.818064764026</v>
       </c>
       <c r="B64">
@@ -897,7 +883,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4">
+      <c r="A65" s="2">
         <v>43721.818082064739</v>
       </c>
       <c r="B65">
@@ -905,7 +891,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="4">
+      <c r="A66" s="2">
         <v>43721.818101066048</v>
       </c>
       <c r="B66">
@@ -913,7 +899,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="4">
+      <c r="A67" s="2">
         <v>43721.818120414398</v>
       </c>
       <c r="B67">
@@ -921,7 +907,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="4">
+      <c r="A68" s="2">
         <v>43721.8181376633</v>
       </c>
       <c r="B68">
@@ -929,7 +915,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>43721.81815262395</v>
       </c>
       <c r="B69">
@@ -937,7 +923,7 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>43721.818166806945</v>
       </c>
       <c r="B70">
@@ -945,7 +931,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>43721.818180307979</v>
       </c>
       <c r="B71">
@@ -953,7 +939,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>43721.818193132873</v>
       </c>
       <c r="B72">
@@ -961,7 +947,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>43721.818205259973</v>
       </c>
       <c r="B73">
@@ -969,7 +955,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>43721.818217434571</v>
       </c>
       <c r="B74">
@@ -977,7 +963,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="4">
+      <c r="A75" s="2">
         <v>43721.8182297647</v>
       </c>
       <c r="B75">
@@ -985,7 +971,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="4">
+      <c r="A76" s="2">
         <v>43721.818242642912</v>
       </c>
       <c r="B76">
@@ -993,7 +979,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="4">
+      <c r="A77" s="2">
         <v>43721.818256971193</v>
       </c>
       <c r="B77">
@@ -1001,7 +987,7 @@
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="4">
+      <c r="A78" s="2">
         <v>43721.818272403325</v>
       </c>
       <c r="B78">
@@ -1009,7 +995,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4">
+      <c r="A79" s="2">
         <v>43721.818288374692</v>
       </c>
       <c r="B79">
@@ -1017,7 +1003,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4">
+      <c r="A80" s="2">
         <v>43721.818305731867</v>
       </c>
       <c r="B80">
@@ -1025,7 +1011,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4">
+      <c r="A81" s="2">
         <v>43721.818326264271</v>
       </c>
       <c r="B81">
@@ -1033,7 +1019,7 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4">
+      <c r="A82" s="2">
         <v>43721.818349839537</v>
       </c>
       <c r="B82">
@@ -1041,7 +1027,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4">
+      <c r="A83" s="2">
         <v>43721.818369219538</v>
       </c>
       <c r="B83">
@@ -1049,7 +1035,7 @@
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4">
+      <c r="A84" s="2">
         <v>43721.818387168227</v>
       </c>
       <c r="B84">
@@ -1057,7 +1043,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4">
+      <c r="A85" s="2">
         <v>43721.818405399914</v>
       </c>
       <c r="B85">
@@ -1065,7 +1051,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4">
+      <c r="A86" s="2">
         <v>43721.818426823011</v>
       </c>
       <c r="B86">
@@ -1073,7 +1059,7 @@
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>43721.818449815153</v>
       </c>
       <c r="B87">
@@ -1081,7 +1067,7 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="4">
+      <c r="A88" s="2">
         <v>43721.818471541745</v>
       </c>
       <c r="B88">
@@ -1089,7 +1075,7 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="4">
+      <c r="A89" s="2">
         <v>43721.81854828028</v>
       </c>
       <c r="B89">
@@ -1097,7 +1083,7 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="4">
+      <c r="A90" s="2">
         <v>43721.818571385811</v>
       </c>
       <c r="B90">
@@ -1105,7 +1091,7 @@
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="4">
+      <c r="A91" s="2">
         <v>43721.818583906046</v>
       </c>
       <c r="B91">
@@ -1113,7 +1099,7 @@
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="4">
+      <c r="A92" s="2">
         <v>43721.818594083306</v>
       </c>
       <c r="B92">
@@ -1121,7 +1107,7 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="4">
+      <c r="A93" s="2">
         <v>43721.818603788386</v>
       </c>
       <c r="B93">
@@ -1129,7 +1115,7 @@
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="4">
+      <c r="A94" s="2">
         <v>43721.818613829324</v>
       </c>
       <c r="B94">
@@ -1137,7 +1123,7 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="4">
+      <c r="A95" s="2">
         <v>43721.818623094005</v>
       </c>
       <c r="B95">
@@ -1145,7 +1131,7 @@
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="4">
+      <c r="A96" s="2">
         <v>43721.818631681381</v>
       </c>
       <c r="B96">
@@ -1153,7 +1139,7 @@
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="4">
+      <c r="A97" s="2">
         <v>43721.818641173886</v>
       </c>
       <c r="B97">
@@ -1161,7 +1147,7 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="4">
+      <c r="A98" s="2">
         <v>43721.818650395027</v>
       </c>
       <c r="B98">
@@ -1169,7 +1155,7 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="4">
+      <c r="A99" s="2">
         <v>43721.818658990902</v>
       </c>
       <c r="B99">
@@ -1177,7 +1163,7 @@
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="4">
+      <c r="A100" s="2">
         <v>43721.818667399239</v>
       </c>
       <c r="B100">
@@ -1185,7 +1171,7 @@
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="4">
+      <c r="A101" s="2">
         <v>43721.818676073104</v>
       </c>
       <c r="B101">
@@ -1193,7 +1179,7 @@
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="4">
+      <c r="A102" s="2">
         <v>43721.818684841041</v>
       </c>
       <c r="B102">
@@ -1201,7 +1187,7 @@
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="4">
+      <c r="A103" s="2">
         <v>43721.818722407676</v>
       </c>
       <c r="B103">
@@ -1209,7 +1195,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="4">
+      <c r="A104" s="2">
         <v>43721.818899855367</v>
       </c>
       <c r="B104">
@@ -1217,7 +1203,7 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="4">
+      <c r="A105" s="2">
         <v>43721.818914875621</v>
       </c>
       <c r="B105">
@@ -1225,7 +1211,7 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="4">
+      <c r="A106" s="2">
         <v>43721.818922294769</v>
       </c>
       <c r="B106">
@@ -1233,7 +1219,7 @@
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="4">
+      <c r="A107" s="2">
         <v>43721.818930010893</v>
       </c>
       <c r="B107">
@@ -1241,7 +1227,7 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="4">
+      <c r="A108" s="2">
         <v>43721.818939930643</v>
       </c>
       <c r="B108">
@@ -1249,7 +1235,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="4">
+      <c r="A109" s="2">
         <v>43721.818948978442</v>
       </c>
       <c r="B109">
@@ -1257,7 +1243,7 @@
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="4">
+      <c r="A110" s="2">
         <v>43721.819116947583</v>
       </c>
       <c r="B110">
@@ -1265,7 +1251,7 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="4">
+      <c r="A111" s="2">
         <v>43721.819506952997</v>
       </c>
       <c r="B111">
@@ -1273,7 +1259,7 @@
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="4">
+      <c r="A112" s="2">
         <v>43721.81951666309</v>
       </c>
       <c r="B112">
@@ -1281,7 +1267,7 @@
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="4">
+      <c r="A113" s="2">
         <v>43721.81952705665</v>
       </c>
       <c r="B113">
@@ -1289,7 +1275,7 @@
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="4">
+      <c r="A114" s="2">
         <v>43721.819537361967</v>
       </c>
       <c r="B114">
@@ -1297,7 +1283,7 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="4">
+      <c r="A115" s="2">
         <v>43721.819547728752</v>
       </c>
       <c r="B115">
@@ -1305,7 +1291,7 @@
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="4">
+      <c r="A116" s="2">
         <v>43721.819557663286</v>
       </c>
       <c r="B116">
@@ -1313,7 +1299,7 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="4">
+      <c r="A117" s="2">
         <v>43721.819567382103</v>
       </c>
       <c r="B117">
@@ -1321,7 +1307,7 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="4">
+      <c r="A118" s="2">
         <v>43721.819586834521</v>
       </c>
       <c r="B118">
@@ -1329,7 +1315,7 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="4">
+      <c r="A119" s="2">
         <v>43721.819603467826</v>
       </c>
       <c r="B119">
@@ -1337,7 +1323,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="4">
+      <c r="A120" s="2">
         <v>43721.819609918166</v>
       </c>
       <c r="B120">
@@ -1345,7 +1331,7 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="4">
+      <c r="A121" s="2">
         <v>43721.819617736146</v>
       </c>
       <c r="B121">
@@ -1353,7 +1339,7 @@
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="4">
+      <c r="A122" s="2">
         <v>43721.819623106625</v>
       </c>
       <c r="B122">
@@ -1361,7 +1347,7 @@
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="4">
+      <c r="A123" s="2">
         <v>43721.819629605045</v>
       </c>
       <c r="B123">
@@ -1369,7 +1355,7 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="4">
+      <c r="A124" s="2">
         <v>43721.819635884844</v>
       </c>
       <c r="B124">
@@ -1377,7 +1363,7 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="4">
+      <c r="A125" s="2">
         <v>43721.819642083952</v>
       </c>
       <c r="B125">
@@ -1385,7 +1371,7 @@
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="4">
+      <c r="A126" s="2">
         <v>43721.819649275974</v>
       </c>
       <c r="B126">
@@ -1393,7 +1379,7 @@
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="4">
+      <c r="A127" s="2">
         <v>43721.819654214196</v>
       </c>
       <c r="B127">
@@ -1401,7 +1387,7 @@
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="4">
+      <c r="A128" s="2">
         <v>43721.819660242763</v>
       </c>
       <c r="B128">
@@ -1409,7 +1395,7 @@
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="4">
+      <c r="A129" s="2">
         <v>43721.819671963458</v>
       </c>
       <c r="B129">
@@ -1417,7 +1403,7 @@
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="4">
+      <c r="A130" s="2">
         <v>43721.819683517911</v>
       </c>
       <c r="B130">
@@ -1425,7 +1411,7 @@
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="4">
+      <c r="A131" s="2">
         <v>43721.81968924636</v>
       </c>
       <c r="B131">
@@ -1433,7 +1419,7 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="4">
+      <c r="A132" s="2">
         <v>43721.819706401438</v>
       </c>
       <c r="B132">
@@ -1441,7 +1427,7 @@
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="4">
+      <c r="A133" s="2">
         <v>43721.819711414981</v>
       </c>
       <c r="B133">
@@ -1449,7 +1435,7 @@
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="4">
+      <c r="A134" s="2">
         <v>43721.819723599008</v>
       </c>
       <c r="B134">
@@ -1457,7 +1443,7 @@
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="4">
+      <c r="A135" s="2">
         <v>43721.819730338997</v>
       </c>
       <c r="B135">
@@ -1465,7 +1451,7 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="4">
+      <c r="A136" s="2">
         <v>43721.819740884006</v>
       </c>
       <c r="B136">
@@ -1473,7 +1459,7 @@
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="4">
+      <c r="A137" s="2">
         <v>43721.819753038115</v>
       </c>
       <c r="B137">
@@ -1481,7 +1467,7 @@
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="4">
+      <c r="A138" s="2">
         <v>43721.819759874488</v>
       </c>
       <c r="B138">
@@ -1489,7 +1475,7 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="4">
+      <c r="A139" s="2">
         <v>43721.819764916552</v>
       </c>
       <c r="B139">
@@ -1497,7 +1483,7 @@
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="4">
+      <c r="A140" s="2">
         <v>43721.819770873175</v>
       </c>
       <c r="B140">
@@ -1505,7 +1491,7 @@
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="4">
+      <c r="A141" s="2">
         <v>43721.819776903605</v>
       </c>
       <c r="B141">
@@ -1513,7 +1499,7 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="4">
+      <c r="A142" s="2">
         <v>43721.819781561731</v>
       </c>
       <c r="B142">
@@ -1521,7 +1507,7 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="4">
+      <c r="A143" s="2">
         <v>43721.819792904658</v>
       </c>
       <c r="B143">
@@ -1529,7 +1515,7 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="4">
+      <c r="A144" s="2">
         <v>43721.819807032007</v>
       </c>
       <c r="B144">
@@ -1537,7 +1523,7 @@
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="4">
+      <c r="A145" s="2">
         <v>43721.819816102507</v>
       </c>
       <c r="B145">
@@ -1545,7 +1531,7 @@
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="4">
+      <c r="A146" s="2">
         <v>43721.819822734695</v>
       </c>
       <c r="B146">
@@ -1553,7 +1539,7 @@
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="4">
+      <c r="A147" s="2">
         <v>43721.819841071381</v>
       </c>
       <c r="B147">
@@ -1561,7 +1547,7 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="4">
+      <c r="A148" s="2">
         <v>43721.819856681162</v>
       </c>
       <c r="B148">
@@ -1569,7 +1555,7 @@
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="4">
+      <c r="A149" s="2">
         <v>43721.819873925531</v>
       </c>
       <c r="B149">
@@ -1577,7 +1563,7 @@
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="4">
+      <c r="A150" s="2">
         <v>43721.819893636624</v>
       </c>
       <c r="B150">
@@ -1585,7 +1571,7 @@
       </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="4">
+      <c r="A151" s="2">
         <v>43721.819963133545</v>
       </c>
       <c r="B151">
@@ -1593,7 +1579,7 @@
       </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="4">
+      <c r="A152" s="2">
         <v>43721.819982879562</v>
       </c>
       <c r="B152">
@@ -1601,7 +1587,7 @@
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="4">
+      <c r="A153" s="2">
         <v>43721.819999461295</v>
       </c>
       <c r="B153">
@@ -1609,7 +1595,7 @@
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="4">
+      <c r="A154" s="2">
         <v>43721.820014248253</v>
       </c>
       <c r="B154">
@@ -1617,7 +1603,7 @@
       </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="4">
+      <c r="A155" s="2">
         <v>43721.820028187823</v>
       </c>
       <c r="B155">
@@ -1625,7 +1611,7 @@
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="4">
+      <c r="A156" s="2">
         <v>43721.820042203763</v>
       </c>
       <c r="B156">
@@ -1633,7 +1619,7 @@
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="4">
+      <c r="A157" s="2">
         <v>43721.820057423785</v>
       </c>
       <c r="B157">
@@ -1641,7 +1627,7 @@
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="4">
+      <c r="A158" s="2">
         <v>43721.820074589923</v>
       </c>
       <c r="B158">
@@ -1649,7 +1635,7 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="4">
+      <c r="A159" s="2">
         <v>43721.820091362228</v>
       </c>
       <c r="B159">
@@ -1657,7 +1643,7 @@
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="4">
+      <c r="A160" s="2">
         <v>43721.820105721243</v>
       </c>
       <c r="B160">
@@ -1665,7 +1651,7 @@
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="4">
+      <c r="A161" s="2">
         <v>43721.820118067204</v>
       </c>
       <c r="B161">
@@ -1673,7 +1659,7 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="4">
+      <c r="A162" s="2">
         <v>43721.820129542961</v>
       </c>
       <c r="B162">
@@ -1681,7 +1667,7 @@
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="4">
+      <c r="A163" s="2">
         <v>43721.820140432101</v>
       </c>
       <c r="B163">
@@ -1689,7 +1675,7 @@
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="4">
+      <c r="A164" s="2">
         <v>43721.820151123335</v>
       </c>
       <c r="B164">
@@ -1697,7 +1683,7 @@
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="4">
+      <c r="A165" s="2">
         <v>43721.820161483134</v>
       </c>
       <c r="B165">
@@ -1705,7 +1691,7 @@
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="4">
+      <c r="A166" s="2">
         <v>43721.82017246203</v>
       </c>
       <c r="B166">
@@ -1713,7 +1699,7 @@
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="4">
+      <c r="A167" s="2">
         <v>43721.820184428128</v>
       </c>
       <c r="B167">
@@ -1721,7 +1707,7 @@
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="4">
+      <c r="A168" s="2">
         <v>43721.820197199471</v>
       </c>
       <c r="B168">
@@ -1729,7 +1715,7 @@
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="4">
+      <c r="A169" s="2">
         <v>43721.820210001082</v>
       </c>
       <c r="B169">
@@ -1737,7 +1723,7 @@
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="4">
+      <c r="A170" s="2">
         <v>43721.820222072187</v>
       </c>
       <c r="B170">
@@ -1745,7 +1731,7 @@
       </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="4">
+      <c r="A171" s="2">
         <v>43721.820233688224</v>
       </c>
       <c r="B171">
@@ -1753,7 +1739,7 @@
       </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="4">
+      <c r="A172" s="2">
         <v>43721.820244943956</v>
       </c>
       <c r="B172">
@@ -1761,7 +1747,7 @@
       </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="4">
+      <c r="A173" s="2">
         <v>43721.820256202598</v>
       </c>
       <c r="B173">
@@ -1769,7 +1755,7 @@
       </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="4">
+      <c r="A174" s="2">
         <v>43721.820267323164</v>
       </c>
       <c r="B174">
@@ -1777,7 +1763,7 @@
       </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="4">
+      <c r="A175" s="2">
         <v>43721.820278749452</v>
       </c>
       <c r="B175">
@@ -1785,7 +1771,7 @@
       </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="4">
+      <c r="A176" s="2">
         <v>43721.820290717296</v>
       </c>
       <c r="B176">
@@ -1793,7 +1779,7 @@
       </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="4">
+      <c r="A177" s="2">
         <v>43721.820303295623</v>
       </c>
       <c r="B177">
@@ -1801,7 +1787,7 @@
       </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="4">
+      <c r="A178" s="2">
         <v>43721.820316499216</v>
       </c>
       <c r="B178">
@@ -1809,7 +1795,7 @@
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="4">
+      <c r="A179" s="2">
         <v>43721.82033026393</v>
       </c>
       <c r="B179">
@@ -1817,7 +1803,7 @@
       </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="4">
+      <c r="A180" s="2">
         <v>43721.820371425711</v>
       </c>
       <c r="B180">
@@ -1825,7 +1811,7 @@
       </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="4">
+      <c r="A181" s="2">
         <v>43721.820385029074</v>
       </c>
       <c r="B181">
@@ -1833,7 +1819,7 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="4">
+      <c r="A182" s="2">
         <v>43721.820399087854</v>
       </c>
       <c r="B182">
@@ -1841,7 +1827,7 @@
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="4">
+      <c r="A183" s="2">
         <v>43721.8209984313</v>
       </c>
       <c r="B183">
@@ -1849,7 +1835,7 @@
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="4">
+      <c r="A184" s="2">
         <v>43721.821018980583</v>
       </c>
       <c r="B184">
@@ -1857,7 +1843,7 @@
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="4">
+      <c r="A185" s="2">
         <v>43721.821341238909</v>
       </c>
       <c r="B185">
@@ -1865,7 +1851,7 @@
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="4">
+      <c r="A186" s="2">
         <v>43721.821352353669</v>
       </c>
       <c r="B186">
@@ -1873,7 +1859,7 @@
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="4">
+      <c r="A187" s="2">
         <v>43721.821362479939</v>
       </c>
       <c r="B187">
@@ -1881,7 +1867,7 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="4">
+      <c r="A188" s="2">
         <v>43721.821372891078</v>
       </c>
       <c r="B188">
@@ -1889,7 +1875,7 @@
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="4">
+      <c r="A189" s="2">
         <v>43721.821383912349</v>
       </c>
       <c r="B189">
@@ -1897,7 +1883,7 @@
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="4">
+      <c r="A190" s="2">
         <v>43721.821394931176</v>
       </c>
       <c r="B190">
@@ -1905,7 +1891,7 @@
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="4">
+      <c r="A191" s="2">
         <v>43721.821405475843</v>
       </c>
       <c r="B191">
@@ -1913,7 +1899,7 @@
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="4">
+      <c r="A192" s="2">
         <v>43721.821426452603</v>
       </c>
       <c r="B192">
@@ -1921,7 +1907,7 @@
       </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="4">
+      <c r="A193" s="2">
         <v>43721.821436956874</v>
       </c>
       <c r="B193">
@@ -1929,7 +1915,7 @@
       </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="4">
+      <c r="A194" s="2">
         <v>43721.821447426693</v>
       </c>
       <c r="B194">
@@ -1937,7 +1923,7 @@
       </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="4">
+      <c r="A195" s="2">
         <v>43721.821457916871</v>
       </c>
       <c r="B195">
@@ -1945,7 +1931,7 @@
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="4">
+      <c r="A196" s="2">
         <v>43721.821468548616</v>
       </c>
       <c r="B196">
@@ -1953,7 +1939,7 @@
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="4">
+      <c r="A197" s="2">
         <v>43721.82147934055</v>
       </c>
       <c r="B197">
@@ -1961,7 +1947,7 @@
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="4">
+      <c r="A198" s="2">
         <v>43721.821491185001</v>
       </c>
       <c r="B198">
@@ -1969,7 +1955,7 @@
       </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="4">
+      <c r="A199" s="2">
         <v>43721.821503965533</v>
       </c>
       <c r="B199">
@@ -1977,7 +1963,7 @@
       </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="4">
+      <c r="A200" s="2">
         <v>43721.821518889279</v>
       </c>
       <c r="B200">
@@ -1985,7 +1971,7 @@
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="4">
+      <c r="A201" s="2">
         <v>43721.821529413457</v>
       </c>
       <c r="B201">
@@ -1993,7 +1979,7 @@
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="4">
+      <c r="A202" s="2">
         <v>43721.821540636127</v>
       </c>
       <c r="B202">
@@ -2001,7 +1987,7 @@
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="4">
+      <c r="A203" s="2">
         <v>43721.821552070214</v>
       </c>
       <c r="B203">
@@ -2009,7 +1995,7 @@
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="4">
+      <c r="A204" s="2">
         <v>43721.821563447942</v>
       </c>
       <c r="B204">
@@ -2017,7 +2003,7 @@
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="4">
+      <c r="A205" s="2">
         <v>43721.821574587375</v>
       </c>
       <c r="B205">
@@ -2025,7 +2011,7 @@
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="4">
+      <c r="A206" s="2">
         <v>43721.82158574881</v>
       </c>
       <c r="B206">
@@ -2033,7 +2019,7 @@
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="4">
+      <c r="A207" s="2">
         <v>43721.821596658905</v>
       </c>
       <c r="B207">
@@ -2041,7 +2027,7 @@
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="4">
+      <c r="A208" s="2">
         <v>43721.821700362365</v>
       </c>
       <c r="B208">
@@ -2049,7 +2035,7 @@
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="4">
+      <c r="A209" s="2">
         <v>43721.821711128694</v>
       </c>
       <c r="B209">
@@ -2057,7 +2043,7 @@
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="4">
+      <c r="A210" s="2">
         <v>43721.821722141205</v>
       </c>
       <c r="B210">
@@ -2065,7 +2051,7 @@
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="4">
+      <c r="A211" s="2">
         <v>43721.82173393527</v>
       </c>
       <c r="B211">
@@ -2073,7 +2059,7 @@
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="4">
+      <c r="A212" s="2">
         <v>43721.821745479712</v>
       </c>
       <c r="B212">
@@ -2081,7 +2067,7 @@
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="4">
+      <c r="A213" s="2">
         <v>43721.821756271063</v>
       </c>
       <c r="B213">
@@ -2089,7 +2075,7 @@
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="4">
+      <c r="A214" s="2">
         <v>43721.821767143789</v>
       </c>
       <c r="B214">
@@ -2097,7 +2083,7 @@
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="4">
+      <c r="A215" s="2">
         <v>43721.821778181009</v>
       </c>
       <c r="B215">
@@ -2105,7 +2091,7 @@
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="4">
+      <c r="A216" s="2">
         <v>43721.821788835921</v>
       </c>
       <c r="B216">
@@ -2113,7 +2099,7 @@
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="4">
+      <c r="A217" s="2">
         <v>43721.821800061734</v>
       </c>
       <c r="B217">
@@ -2121,7 +2107,7 @@
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="4">
+      <c r="A218" s="2">
         <v>43721.821821778431</v>
       </c>
       <c r="B218">
@@ -2129,7 +2115,7 @@
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="4">
+      <c r="A219" s="2">
         <v>43721.821832269779</v>
       </c>
       <c r="B219">
@@ -2137,7 +2123,7 @@
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="4">
+      <c r="A220" s="2">
         <v>43721.821842930396</v>
       </c>
       <c r="B220">
@@ -2145,7 +2131,7 @@
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="4">
+      <c r="A221" s="2">
         <v>43721.821853191359</v>
       </c>
       <c r="B221">
@@ -2153,7 +2139,7 @@
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="4">
+      <c r="A222" s="2">
         <v>43721.821863170248</v>
       </c>
       <c r="B222">
@@ -2161,7 +2147,7 @@
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="4">
+      <c r="A223" s="2">
         <v>43721.822474000975</v>
       </c>
       <c r="B223">
@@ -2169,7 +2155,7 @@
       </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="4">
+      <c r="A224" s="2">
         <v>43721.822484257522</v>
       </c>
       <c r="B224">
@@ -2177,7 +2163,7 @@
       </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="4">
+      <c r="A225" s="2">
         <v>43721.822495721281</v>
       </c>
       <c r="B225">
@@ -2185,7 +2171,7 @@
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="4">
+      <c r="A226" s="2">
         <v>43721.82250751683</v>
       </c>
       <c r="B226">
@@ -2193,7 +2179,7 @@
       </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="4">
+      <c r="A227" s="2">
         <v>43721.822520029149</v>
       </c>
       <c r="B227">
@@ -2201,7 +2187,7 @@
       </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="4">
+      <c r="A228" s="2">
         <v>43721.822531301877</v>
       </c>
       <c r="B228">
@@ -2209,7 +2195,7 @@
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="4">
+      <c r="A229" s="2">
         <v>43721.822542637121</v>
       </c>
       <c r="B229">
@@ -2217,7 +2203,7 @@
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="4">
+      <c r="A230" s="2">
         <v>43721.822552416823</v>
       </c>
       <c r="B230">
@@ -2225,7 +2211,7 @@
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="4">
+      <c r="A231" s="2">
         <v>43721.82256396662</v>
       </c>
       <c r="B231">
@@ -2233,7 +2219,7 @@
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="4">
+      <c r="A232" s="2">
         <v>43721.822574855876</v>
       </c>
       <c r="B232">
@@ -2241,7 +2227,7 @@
       </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="4">
+      <c r="A233" s="2">
         <v>43721.822586887982</v>
       </c>
       <c r="B233">
@@ -2249,7 +2235,7 @@
       </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="4">
+      <c r="A234" s="2">
         <v>43721.822596253362</v>
       </c>
       <c r="B234">
@@ -2257,7 +2243,7 @@
       </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="4">
+      <c r="A235" s="2">
         <v>43721.822608821676</v>
       </c>
       <c r="B235">
@@ -2265,7 +2251,7 @@
       </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="4">
+      <c r="A236" s="2">
         <v>43721.822620561339</v>
       </c>
       <c r="B236">
@@ -2273,7 +2259,7 @@
       </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="4">
+      <c r="A237" s="2">
         <v>43721.822630552109</v>
       </c>
       <c r="B237">
@@ -2281,7 +2267,7 @@
       </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="4">
+      <c r="A238" s="2">
         <v>43721.822643461986</v>
       </c>
       <c r="B238">
@@ -2289,7 +2275,7 @@
       </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="4">
+      <c r="A239" s="2">
         <v>43721.822661015911</v>
       </c>
       <c r="B239">
@@ -2297,7 +2283,7 @@
       </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="4">
+      <c r="A240" s="2">
         <v>43721.822670990368</v>
       </c>
       <c r="B240">
@@ -2305,7 +2291,7 @@
       </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="4">
+      <c r="A241" s="2">
         <v>43721.822691984824</v>
       </c>
       <c r="B241">
@@ -2313,7 +2299,7 @@
       </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="4">
+      <c r="A242" s="2">
         <v>43721.822704006336</v>
       </c>
       <c r="B242">
@@ -2321,7 +2307,7 @@
       </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="4">
+      <c r="A243" s="2">
         <v>43721.822713532019</v>
       </c>
       <c r="B243">
@@ -2329,7 +2315,7 @@
       </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="4">
+      <c r="A244" s="2">
         <v>43721.822724125697</v>
       </c>
       <c r="B244">
@@ -2337,7 +2323,7 @@
       </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="4">
+      <c r="A245" s="2">
         <v>43721.82273482054</v>
       </c>
       <c r="B245">
@@ -2345,7 +2331,7 @@
       </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="4">
+      <c r="A246" s="2">
         <v>43721.822745574987</v>
       </c>
       <c r="B246">
@@ -2353,7 +2339,7 @@
       </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="4">
+      <c r="A247" s="2">
         <v>43721.82275629777</v>
       </c>
       <c r="B247">
@@ -2361,7 +2347,7 @@
       </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="4">
+      <c r="A248" s="2">
         <v>43721.822766911355</v>
       </c>
       <c r="B248">
@@ -2369,7 +2355,7 @@
       </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="4">
+      <c r="A249" s="2">
         <v>43721.822777610621</v>
       </c>
       <c r="B249">
@@ -2377,7 +2363,7 @@
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="4">
+      <c r="A250" s="2">
         <v>43721.822788902675</v>
       </c>
       <c r="B250">
@@ -2385,7 +2371,7 @@
       </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="4">
+      <c r="A251" s="2">
         <v>43721.822800045134</v>
       </c>
       <c r="B251">
@@ -2393,7 +2379,7 @@
       </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="4">
+      <c r="A252" s="2">
         <v>43721.822812530329</v>
       </c>
       <c r="B252">
@@ -2401,7 +2387,7 @@
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="4">
+      <c r="A253" s="2">
         <v>43721.822824099218</v>
       </c>
       <c r="B253">
@@ -2409,7 +2395,7 @@
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="4">
+      <c r="A254" s="2">
         <v>43721.822834562859</v>
       </c>
       <c r="B254">
@@ -2417,7 +2403,7 @@
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="4">
+      <c r="A255" s="2">
         <v>43721.822846629308</v>
       </c>
       <c r="B255">
@@ -2425,7 +2411,7 @@
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="4">
+      <c r="A256" s="2">
         <v>43721.822858303785</v>
       </c>
       <c r="B256">
@@ -2433,7 +2419,7 @@
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="4">
+      <c r="A257" s="2">
         <v>43721.822869510972</v>
       </c>
       <c r="B257">
@@ -2441,7 +2427,7 @@
       </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="4">
+      <c r="A258" s="2">
         <v>43721.822882275206</v>
       </c>
       <c r="B258">
@@ -2449,7 +2435,7 @@
       </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="4">
+      <c r="A259" s="2">
         <v>43721.822892971912</v>
       </c>
       <c r="B259">
@@ -2457,7 +2443,7 @@
       </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="4">
+      <c r="A260" s="2">
         <v>43721.822928764042</v>
       </c>
       <c r="B260">
@@ -2465,7 +2451,7 @@
       </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="4">
+      <c r="A261" s="2">
         <v>43721.822940829443</v>
       </c>
       <c r="B261">
@@ -2473,7 +2459,7 @@
       </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="4">
+      <c r="A262" s="2">
         <v>43721.822952272836</v>
       </c>
       <c r="B262">
@@ -2481,7 +2467,7 @@
       </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="4">
+      <c r="A263" s="2">
         <v>43721.822963219602</v>
       </c>
       <c r="B263">
@@ -2489,7 +2475,7 @@
       </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="4">
+      <c r="A264" s="2">
         <v>43721.822973870905</v>
       </c>
       <c r="B264">
@@ -2497,7 +2483,7 @@
       </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="4">
+      <c r="A265" s="2">
         <v>43721.822984727449</v>
       </c>
       <c r="B265">
@@ -2505,7 +2491,7 @@
       </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="4">
+      <c r="A266" s="2">
         <v>43721.822996418698</v>
       </c>
       <c r="B266">
@@ -2513,7 +2499,7 @@
       </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="4">
+      <c r="A267" s="2">
         <v>43721.823008833453</v>
       </c>
       <c r="B267">
@@ -2521,7 +2507,7 @@
       </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="4">
+      <c r="A268" s="2">
         <v>43721.823021661257</v>
       </c>
       <c r="B268">
@@ -2529,7 +2515,7 @@
       </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="4">
+      <c r="A269" s="2">
         <v>43721.823034483008</v>
       </c>
       <c r="B269">
@@ -2537,7 +2523,7 @@
       </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="4">
+      <c r="A270" s="2">
         <v>43721.82304693677</v>
       </c>
       <c r="B270">
@@ -2545,7 +2531,7 @@
       </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="4">
+      <c r="A271" s="2">
         <v>43721.82308429596</v>
       </c>
       <c r="B271">
@@ -2553,7 +2539,7 @@
       </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="4">
+      <c r="A272" s="2">
         <v>43721.8232298441</v>
       </c>
       <c r="B272">
@@ -2561,7 +2547,7 @@
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="4">
+      <c r="A273" s="2">
         <v>43721.823241911014</v>
       </c>
       <c r="B273">
@@ -2569,7 +2555,7 @@
       </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="4">
+      <c r="A274" s="2">
         <v>43721.823252905742</v>
       </c>
       <c r="B274">
@@ -2577,7 +2563,7 @@
       </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="4">
+      <c r="A275" s="2">
         <v>43721.823263449944</v>
       </c>
       <c r="B275">
@@ -2585,7 +2571,7 @@
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="4">
+      <c r="A276" s="2">
         <v>43721.823274286697</v>
       </c>
       <c r="B276">
@@ -2593,7 +2579,7 @@
       </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="4">
+      <c r="A277" s="2">
         <v>43721.823285974671</v>
       </c>
       <c r="B277">
@@ -2601,7 +2587,7 @@
       </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="4">
+      <c r="A278" s="2">
         <v>43721.8232992884</v>
       </c>
       <c r="B278">
@@ -2609,7 +2595,7 @@
       </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="4">
+      <c r="A279" s="2">
         <v>43721.823310364038</v>
       </c>
       <c r="B279">
@@ -2617,7 +2603,7 @@
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="4">
+      <c r="A280" s="2">
         <v>43721.823319489376</v>
       </c>
       <c r="B280">
@@ -2625,7 +2611,7 @@
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="4">
+      <c r="A281" s="2">
         <v>43721.823330412735</v>
       </c>
       <c r="B281">
@@ -2633,7 +2619,7 @@
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="4">
+      <c r="A282" s="2">
         <v>43721.82334227406</v>
       </c>
       <c r="B282">
@@ -2641,7 +2627,7 @@
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="4">
+      <c r="A283" s="2">
         <v>43721.823353966807</v>
       </c>
       <c r="B283">
@@ -2649,7 +2635,7 @@
       </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="4">
+      <c r="A284" s="2">
         <v>43721.823365796008</v>
       </c>
       <c r="B284">
@@ -2657,7 +2643,7 @@
       </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="4">
+      <c r="A285" s="2">
         <v>43721.823376844637</v>
       </c>
       <c r="B285">
@@ -2665,7 +2651,7 @@
       </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="4">
+      <c r="A286" s="2">
         <v>43721.823388114455</v>
       </c>
       <c r="B286">
@@ -2673,7 +2659,7 @@
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="4">
+      <c r="A287" s="2">
         <v>43721.823399261455</v>
       </c>
       <c r="B287">
@@ -2681,7 +2667,7 @@
       </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="4">
+      <c r="A288" s="2">
         <v>43721.823410253623</v>
       </c>
       <c r="B288">
@@ -2689,7 +2675,7 @@
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="4">
+      <c r="A289" s="2">
         <v>43721.823421100271</v>
       </c>
       <c r="B289">
@@ -2697,7 +2683,7 @@
       </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="4">
+      <c r="A290" s="2">
         <v>43721.823505145614</v>
       </c>
       <c r="B290">
@@ -2705,7 +2691,7 @@
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="4">
+      <c r="A291" s="2">
         <v>43721.823518823716</v>
       </c>
       <c r="B291">
@@ -2713,7 +2699,7 @@
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="4">
+      <c r="A292" s="2">
         <v>43721.823530007852</v>
       </c>
       <c r="B292">
@@ -2721,7 +2707,7 @@
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="4">
+      <c r="A293" s="2">
         <v>43721.82354039012</v>
       </c>
       <c r="B293">
@@ -2729,7 +2715,7 @@
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="4">
+      <c r="A294" s="2">
         <v>43721.823552260641</v>
       </c>
       <c r="B294">
@@ -2737,7 +2723,7 @@
       </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="4">
+      <c r="A295" s="2">
         <v>43721.823562350015</v>
       </c>
       <c r="B295">
@@ -2745,7 +2731,7 @@
       </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="4">
+      <c r="A296" s="2">
         <v>43721.823572117486</v>
       </c>
       <c r="B296">
@@ -2753,7 +2739,7 @@
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="4">
+      <c r="A297" s="2">
         <v>43721.823790645227</v>
       </c>
       <c r="B297">
@@ -2761,7 +2747,7 @@
       </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="4">
+      <c r="A298" s="2">
         <v>43721.823804800981</v>
       </c>
       <c r="B298">
@@ -2769,7 +2755,7 @@
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="4">
+      <c r="A299" s="2">
         <v>43721.823846910032</v>
       </c>
       <c r="B299">
@@ -2777,7 +2763,7 @@
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="4">
+      <c r="A300" s="2">
         <v>43721.82395489281</v>
       </c>
       <c r="B300">
@@ -2785,7 +2771,7 @@
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="4">
+      <c r="A301" s="2">
         <v>43721.823966454365</v>
       </c>
       <c r="B301">
@@ -2793,7 +2779,7 @@
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="4">
+      <c r="A302" s="2">
         <v>43721.823979512439</v>
       </c>
       <c r="B302">
@@ -2801,7 +2787,7 @@
       </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="4">
+      <c r="A303" s="2">
         <v>43721.823990381788</v>
       </c>
       <c r="B303">
@@ -2809,7 +2795,7 @@
       </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="4">
+      <c r="A304" s="2">
         <v>43721.824051368632</v>
       </c>
       <c r="B304">
@@ -2817,7 +2803,7 @@
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="4">
+      <c r="A305" s="2">
         <v>43721.824075213866</v>
       </c>
       <c r="B305">
@@ -2825,7 +2811,7 @@
       </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="4">
+      <c r="A306" s="2">
         <v>43721.82408627274</v>
       </c>
       <c r="B306">
@@ -2833,7 +2819,7 @@
       </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="4">
+      <c r="A307" s="2">
         <v>43721.824096930213</v>
       </c>
       <c r="B307">
@@ -2841,7 +2827,7 @@
       </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="4">
+      <c r="A308" s="2">
         <v>43721.824108120287</v>
       </c>
       <c r="B308">
@@ -2849,7 +2835,7 @@
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="4">
+      <c r="A309" s="2">
         <v>43721.824118664721</v>
       </c>
       <c r="B309">
@@ -2857,7 +2843,7 @@
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="4">
+      <c r="A310" s="2">
         <v>43721.824130301247</v>
       </c>
       <c r="B310">
@@ -2865,7 +2851,7 @@
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="4">
+      <c r="A311" s="2">
         <v>43721.824140066747</v>
       </c>
       <c r="B311">
@@ -2873,7 +2859,7 @@
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="4">
+      <c r="A312" s="2">
         <v>43721.824149909778</v>
       </c>
       <c r="B312">
@@ -2881,7 +2867,7 @@
       </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="4">
+      <c r="A313" s="2">
         <v>43721.824159768061</v>
       </c>
       <c r="B313">
@@ -2889,7 +2875,7 @@
       </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="4">
+      <c r="A314" s="2">
         <v>43721.824167614803</v>
       </c>
       <c r="B314">
@@ -2897,7 +2883,7 @@
       </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="4">
+      <c r="A315" s="2">
         <v>43721.824176916154</v>
       </c>
       <c r="B315">
@@ -2905,7 +2891,7 @@
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="4">
+      <c r="A316" s="2">
         <v>43721.824186197948</v>
       </c>
       <c r="B316">
@@ -2913,7 +2899,7 @@
       </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="4">
+      <c r="A317" s="2">
         <v>43721.82419551874</v>
       </c>
       <c r="B317">
@@ -2921,7 +2907,7 @@
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="4">
+      <c r="A318" s="2">
         <v>43721.824205049896</v>
       </c>
       <c r="B318">
@@ -2929,7 +2915,7 @@
       </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="4">
+      <c r="A319" s="2">
         <v>43721.824645984452</v>
       </c>
       <c r="B319">
@@ -2937,7 +2923,7 @@
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="4">
+      <c r="A320" s="2">
         <v>43721.824657704798</v>
       </c>
       <c r="B320">
@@ -2945,7 +2931,7 @@
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="4">
+      <c r="A321" s="2">
         <v>43721.824669600232</v>
       </c>
       <c r="B321">
@@ -2953,7 +2939,7 @@
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="4">
+      <c r="A322" s="2">
         <v>43721.824681423022</v>
       </c>
       <c r="B322">
@@ -2961,7 +2947,7 @@
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="4">
+      <c r="A323" s="2">
         <v>43721.824699648889</v>
       </c>
       <c r="B323">
@@ -2969,7 +2955,7 @@
       </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="4">
+      <c r="A324" s="2">
         <v>43721.824704820523</v>
       </c>
       <c r="B324">
@@ -2977,7 +2963,7 @@
       </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="4">
+      <c r="A325" s="2">
         <v>43721.824798480258</v>
       </c>
       <c r="B325">
@@ -2985,7 +2971,7 @@
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="4">
+      <c r="A326" s="2">
         <v>43721.824811130995</v>
       </c>
       <c r="B326">
@@ -2993,7 +2979,7 @@
       </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="4">
+      <c r="A327" s="2">
         <v>43721.824823964271</v>
       </c>
       <c r="B327">
@@ -3001,7 +2987,7 @@
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="4">
+      <c r="A328" s="2">
         <v>43721.824837064138</v>
       </c>
       <c r="B328">
@@ -3009,7 +2995,7 @@
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="4">
+      <c r="A329" s="2">
         <v>43721.824979880592</v>
       </c>
       <c r="B329">
@@ -3017,7 +3003,7 @@
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="4">
+      <c r="A330" s="2">
         <v>43721.824990451103</v>
       </c>
       <c r="B330">
@@ -3025,7 +3011,7 @@
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="4">
+      <c r="A331" s="2">
         <v>43721.825000594952</v>
       </c>
       <c r="B331">
@@ -3033,7 +3019,7 @@
       </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="4">
+      <c r="A332" s="2">
         <v>43721.825008140295</v>
       </c>
       <c r="B332">
@@ -3041,7 +3027,7 @@
       </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="4">
+      <c r="A333" s="2">
         <v>43721.825052241562</v>
       </c>
       <c r="B333">
@@ -3049,7 +3035,7 @@
       </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="4">
+      <c r="A334" s="2">
         <v>43721.825058626011</v>
       </c>
       <c r="B334">
@@ -3057,7 +3043,7 @@
       </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="4">
+      <c r="A335" s="2">
         <v>43721.825177859166</v>
       </c>
       <c r="B335">
@@ -3065,7 +3051,7 @@
       </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="4">
+      <c r="A336" s="2">
         <v>43721.825239160447</v>
       </c>
       <c r="B336">
@@ -3073,7 +3059,7 @@
       </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="4">
+      <c r="A337" s="2">
         <v>43721.82524823409</v>
       </c>
       <c r="B337">
@@ -3081,7 +3067,7 @@
       </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="4">
+      <c r="A338" s="2">
         <v>43721.825258013901</v>
       </c>
       <c r="B338">
@@ -3089,7 +3075,7 @@
       </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="4">
+      <c r="A339" s="2">
         <v>43721.825267502689</v>
       </c>
       <c r="B339">
@@ -3097,7 +3083,7 @@
       </c>
     </row>
     <row r="340" spans="1:2">
-      <c r="A340" s="4">
+      <c r="A340" s="2">
         <v>43721.825289531371</v>
       </c>
       <c r="B340">
@@ -3105,7 +3091,7 @@
       </c>
     </row>
     <row r="341" spans="1:2">
-      <c r="A341" s="4">
+      <c r="A341" s="2">
         <v>43721.825299742632</v>
       </c>
       <c r="B341">
@@ -3113,7 +3099,7 @@
       </c>
     </row>
     <row r="342" spans="1:2">
-      <c r="A342" s="4">
+      <c r="A342" s="2">
         <v>43721.825309607666</v>
       </c>
       <c r="B342">
@@ -3121,7 +3107,7 @@
       </c>
     </row>
     <row r="343" spans="1:2">
-      <c r="A343" s="4">
+      <c r="A343" s="2">
         <v>43721.825320961885</v>
       </c>
       <c r="B343">
@@ -3129,7 +3115,7 @@
       </c>
     </row>
     <row r="344" spans="1:2">
-      <c r="A344" s="4">
+      <c r="A344" s="2">
         <v>43721.825332918088</v>
       </c>
       <c r="B344">
@@ -3137,7 +3123,7 @@
       </c>
     </row>
     <row r="345" spans="1:2">
-      <c r="A345" s="4">
+      <c r="A345" s="2">
         <v>43721.825346573954</v>
       </c>
       <c r="B345">
@@ -3145,7 +3131,7 @@
       </c>
     </row>
     <row r="346" spans="1:2">
-      <c r="A346" s="4">
+      <c r="A346" s="2">
         <v>43721.825363157666</v>
       </c>
       <c r="B346">
@@ -3153,7 +3139,7 @@
       </c>
     </row>
     <row r="347" spans="1:2">
-      <c r="A347" s="4">
+      <c r="A347" s="2">
         <v>43721.829957558075</v>
       </c>
       <c r="B347">
@@ -3161,7 +3147,7 @@
       </c>
     </row>
     <row r="348" spans="1:2">
-      <c r="A348" s="4">
+      <c r="A348" s="2">
         <v>43721.82997200347</v>
       </c>
       <c r="B348">
@@ -3169,7 +3155,7 @@
       </c>
     </row>
     <row r="349" spans="1:2">
-      <c r="A349" s="4">
+      <c r="A349" s="2">
         <v>43721.829988415702</v>
       </c>
       <c r="B349">
@@ -3177,7 +3163,7 @@
       </c>
     </row>
     <row r="350" spans="1:2">
-      <c r="A350" s="4">
+      <c r="A350" s="2">
         <v>43721.830005795928</v>
       </c>
       <c r="B350">
@@ -3185,7 +3171,7 @@
       </c>
     </row>
     <row r="351" spans="1:2">
-      <c r="A351" s="4">
+      <c r="A351" s="2">
         <v>43721.830023375922</v>
       </c>
       <c r="B351">
@@ -3193,7 +3179,7 @@
       </c>
     </row>
     <row r="352" spans="1:2">
-      <c r="A352" s="4">
+      <c r="A352" s="2">
         <v>43721.830043000635</v>
       </c>
       <c r="B352">
@@ -3201,7 +3187,7 @@
       </c>
     </row>
     <row r="353" spans="1:2">
-      <c r="A353" s="4">
+      <c r="A353" s="2">
         <v>43721.830088967457</v>
       </c>
       <c r="B353">
@@ -3209,7 +3195,7 @@
       </c>
     </row>
     <row r="354" spans="1:2">
-      <c r="A354" s="4">
+      <c r="A354" s="2">
         <v>43721.831885208601</v>
       </c>
       <c r="B354">
@@ -3217,7 +3203,7 @@
       </c>
     </row>
     <row r="355" spans="1:2">
-      <c r="A355" s="4">
+      <c r="A355" s="2">
         <v>43721.831898676232</v>
       </c>
       <c r="B355">
@@ -3225,7 +3211,7 @@
       </c>
     </row>
     <row r="356" spans="1:2">
-      <c r="A356" s="4">
+      <c r="A356" s="2">
         <v>43721.831914727809</v>
       </c>
       <c r="B356">
@@ -3233,7 +3219,7 @@
       </c>
     </row>
     <row r="357" spans="1:2">
-      <c r="A357" s="4">
+      <c r="A357" s="2">
         <v>43721.831933543202</v>
       </c>
       <c r="B357">
@@ -3241,7 +3227,7 @@
       </c>
     </row>
     <row r="358" spans="1:2">
-      <c r="A358" s="4">
+      <c r="A358" s="2">
         <v>43721.831953770481</v>
       </c>
       <c r="B358">
@@ -3249,7 +3235,7 @@
       </c>
     </row>
     <row r="359" spans="1:2">
-      <c r="A359" s="4">
+      <c r="A359" s="2">
         <v>43721.83197231032</v>
       </c>
       <c r="B359">
@@ -3257,7 +3243,7 @@
       </c>
     </row>
     <row r="360" spans="1:2">
-      <c r="A360" s="4">
+      <c r="A360" s="2">
         <v>43721.831992488937</v>
       </c>
       <c r="B360">
@@ -3265,7 +3251,7 @@
       </c>
     </row>
     <row r="361" spans="1:2">
-      <c r="A361" s="4">
+      <c r="A361" s="2">
         <v>43721.832012469997</v>
       </c>
       <c r="B361">
@@ -3273,7 +3259,7 @@
       </c>
     </row>
     <row r="362" spans="1:2">
-      <c r="A362" s="4">
+      <c r="A362" s="2">
         <v>43721.832033019971</v>
       </c>
       <c r="B362">
@@ -3281,7 +3267,7 @@
       </c>
     </row>
     <row r="363" spans="1:2">
-      <c r="A363" s="4">
+      <c r="A363" s="2">
         <v>43721.832105270005</v>
       </c>
       <c r="B363">
@@ -3289,7 +3275,7 @@
       </c>
     </row>
     <row r="364" spans="1:2">
-      <c r="A364" s="4">
+      <c r="A364" s="2">
         <v>43721.832126218244</v>
       </c>
       <c r="B364">
@@ -3297,7 +3283,7 @@
       </c>
     </row>
     <row r="365" spans="1:2">
-      <c r="A365" s="4">
+      <c r="A365" s="2">
         <v>43721.832144888118</v>
       </c>
       <c r="B365">
@@ -3305,7 +3291,7 @@
       </c>
     </row>
     <row r="366" spans="1:2">
-      <c r="A366" s="4">
+      <c r="A366" s="2">
         <v>43721.832162233186</v>
       </c>
       <c r="B366">
@@ -3313,7 +3299,7 @@
       </c>
     </row>
     <row r="367" spans="1:2">
-      <c r="A367" s="4">
+      <c r="A367" s="2">
         <v>43721.832179017365</v>
       </c>
       <c r="B367">
@@ -3321,7 +3307,7 @@
       </c>
     </row>
     <row r="368" spans="1:2">
-      <c r="A368" s="4">
+      <c r="A368" s="2">
         <v>43721.832196568255</v>
       </c>
       <c r="B368">
@@ -3329,7 +3315,7 @@
       </c>
     </row>
     <row r="369" spans="1:2">
-      <c r="A369" s="4">
+      <c r="A369" s="2">
         <v>43721.832214667462</v>
       </c>
       <c r="B369">
@@ -3337,7 +3323,7 @@
       </c>
     </row>
     <row r="370" spans="1:2">
-      <c r="A370" s="4">
+      <c r="A370" s="2">
         <v>43721.832285355777</v>
       </c>
       <c r="B370">
@@ -3345,7 +3331,7 @@
       </c>
     </row>
     <row r="371" spans="1:2">
-      <c r="A371" s="4">
+      <c r="A371" s="2">
         <v>43721.832306463271</v>
       </c>
       <c r="B371">
@@ -3353,7 +3339,7 @@
       </c>
     </row>
     <row r="372" spans="1:2">
-      <c r="A372" s="4">
+      <c r="A372" s="2">
         <v>43721.832326374832</v>
       </c>
       <c r="B372">
@@ -3361,7 +3347,7 @@
       </c>
     </row>
     <row r="373" spans="1:2">
-      <c r="A373" s="4">
+      <c r="A373" s="2">
         <v>43721.832428767928</v>
       </c>
       <c r="B373">
@@ -3369,7 +3355,7 @@
       </c>
     </row>
     <row r="374" spans="1:2">
-      <c r="A374" s="4">
+      <c r="A374" s="2">
         <v>43721.832451901981</v>
       </c>
       <c r="B374">
@@ -3377,7 +3363,7 @@
       </c>
     </row>
     <row r="375" spans="1:2">
-      <c r="A375" s="4">
+      <c r="A375" s="2">
         <v>43721.832470164518</v>
       </c>
       <c r="B375">
@@ -3385,7 +3371,7 @@
       </c>
     </row>
     <row r="376" spans="1:2">
-      <c r="A376" s="4">
+      <c r="A376" s="2">
         <v>43721.832490533598</v>
       </c>
       <c r="B376">
@@ -3393,7 +3379,7 @@
       </c>
     </row>
     <row r="377" spans="1:2">
-      <c r="A377" s="4">
+      <c r="A377" s="2">
         <v>43721.832512678346</v>
       </c>
       <c r="B377">
@@ -3401,7 +3387,7 @@
       </c>
     </row>
     <row r="378" spans="1:2">
-      <c r="A378" s="4">
+      <c r="A378" s="2">
         <v>43721.832528266707</v>
       </c>
       <c r="B378">
@@ -3409,7 +3395,7 @@
       </c>
     </row>
     <row r="379" spans="1:2">
-      <c r="A379" s="4">
+      <c r="A379" s="2">
         <v>43721.833395016147</v>
       </c>
       <c r="B379">
@@ -3417,7 +3403,7 @@
       </c>
     </row>
     <row r="380" spans="1:2">
-      <c r="A380" s="4">
+      <c r="A380" s="2">
         <v>43721.833409316605</v>
       </c>
       <c r="B380">
@@ -3425,7 +3411,7 @@
       </c>
     </row>
     <row r="381" spans="1:2">
-      <c r="A381" s="4">
+      <c r="A381" s="2">
         <v>43721.83342743665</v>
       </c>
       <c r="B381">
@@ -3433,7 +3419,7 @@
       </c>
     </row>
     <row r="382" spans="1:2">
-      <c r="A382" s="4">
+      <c r="A382" s="2">
         <v>43721.833541038555</v>
       </c>
       <c r="B382">
@@ -3441,7 +3427,7 @@
       </c>
     </row>
     <row r="383" spans="1:2">
-      <c r="A383" s="4">
+      <c r="A383" s="2">
         <v>43721.833560528459</v>
       </c>
       <c r="B383">
@@ -3449,7 +3435,7 @@
       </c>
     </row>
     <row r="384" spans="1:2">
-      <c r="A384" s="4">
+      <c r="A384" s="2">
         <v>43721.833578017548</v>
       </c>
       <c r="B384">
@@ -3457,7 +3443,7 @@
       </c>
     </row>
     <row r="385" spans="1:2">
-      <c r="A385" s="4">
+      <c r="A385" s="2">
         <v>43721.833593791001</v>
       </c>
       <c r="B385">
@@ -3465,7 +3451,7 @@
       </c>
     </row>
     <row r="386" spans="1:2">
-      <c r="A386" s="4">
+      <c r="A386" s="2">
         <v>43721.833610036992</v>
       </c>
       <c r="B386">
@@ -3473,7 +3459,7 @@
       </c>
     </row>
     <row r="387" spans="1:2">
-      <c r="A387" s="4">
+      <c r="A387" s="2">
         <v>43721.833627642831</v>
       </c>
       <c r="B387">
@@ -3481,7 +3467,7 @@
       </c>
     </row>
     <row r="388" spans="1:2">
-      <c r="A388" s="4">
+      <c r="A388" s="2">
         <v>43721.833646784304</v>
       </c>
       <c r="B388">
@@ -3489,7 +3475,7 @@
       </c>
     </row>
     <row r="389" spans="1:2">
-      <c r="A389" s="4">
+      <c r="A389" s="2">
         <v>43721.833667732084</v>
       </c>
       <c r="B389">
@@ -3497,7 +3483,7 @@
       </c>
     </row>
     <row r="390" spans="1:2">
-      <c r="A390" s="4">
+      <c r="A390" s="2">
         <v>43721.83371659054</v>
       </c>
       <c r="B390">
@@ -3505,7 +3491,7 @@
       </c>
     </row>
     <row r="391" spans="1:2">
-      <c r="A391" s="4">
+      <c r="A391" s="2">
         <v>43721.833737591864</v>
       </c>
       <c r="B391">
@@ -3513,7 +3499,7 @@
       </c>
     </row>
     <row r="392" spans="1:2">
-      <c r="A392" s="4">
+      <c r="A392" s="2">
         <v>43721.83375722589</v>
       </c>
       <c r="B392">
@@ -3521,7 +3507,7 @@
       </c>
     </row>
     <row r="393" spans="1:2">
-      <c r="A393" s="4">
+      <c r="A393" s="2">
         <v>43721.833773738712</v>
       </c>
       <c r="B393">
@@ -3529,7 +3515,7 @@
       </c>
     </row>
     <row r="394" spans="1:2">
-      <c r="A394" s="4">
+      <c r="A394" s="2">
         <v>43721.83379004267</v>
       </c>
       <c r="B394">
@@ -3537,7 +3523,7 @@
       </c>
     </row>
     <row r="395" spans="1:2">
-      <c r="A395" s="4">
+      <c r="A395" s="2">
         <v>43721.833808248863</v>
       </c>
       <c r="B395">
@@ -3545,7 +3531,7 @@
       </c>
     </row>
     <row r="396" spans="1:2">
-      <c r="A396" s="4">
+      <c r="A396" s="2">
         <v>43721.833824339672</v>
       </c>
       <c r="B396">
@@ -3553,7 +3539,7 @@
       </c>
     </row>
     <row r="397" spans="1:2">
-      <c r="A397" s="4">
+      <c r="A397" s="2">
         <v>43721.833835251629</v>
       </c>
       <c r="B397">
@@ -3561,7 +3547,7 @@
       </c>
     </row>
     <row r="398" spans="1:2">
-      <c r="A398" s="4">
+      <c r="A398" s="2">
         <v>43721.833845952875</v>
       </c>
       <c r="B398">
@@ -3569,7 +3555,7 @@
       </c>
     </row>
     <row r="399" spans="1:2">
-      <c r="A399" s="4">
+      <c r="A399" s="2">
         <v>43721.833857552963</v>
       </c>
       <c r="B399">
@@ -3577,7 +3563,7 @@
       </c>
     </row>
     <row r="400" spans="1:2">
-      <c r="A400" s="4">
+      <c r="A400" s="2">
         <v>43721.833869624068</v>
       </c>
       <c r="B400">
@@ -3585,7 +3571,7 @@
       </c>
     </row>
     <row r="401" spans="1:2">
-      <c r="A401" s="4">
+      <c r="A401" s="2">
         <v>43721.83388242207</v>
       </c>
       <c r="B401">
@@ -3593,7 +3579,7 @@
       </c>
     </row>
     <row r="402" spans="1:2">
-      <c r="A402" s="4">
+      <c r="A402" s="2">
         <v>43721.833895867458</v>
       </c>
       <c r="B402">
@@ -3601,7 +3587,7 @@
       </c>
     </row>
     <row r="403" spans="1:2">
-      <c r="A403" s="4">
+      <c r="A403" s="2">
         <v>43721.834104685229</v>
       </c>
       <c r="B403">
@@ -3609,7 +3595,7 @@
       </c>
     </row>
     <row r="404" spans="1:2">
-      <c r="A404" s="4">
+      <c r="A404" s="2">
         <v>43721.834117575316</v>
       </c>
       <c r="B404">
@@ -3617,7 +3603,7 @@
       </c>
     </row>
     <row r="405" spans="1:2">
-      <c r="A405" s="4">
+      <c r="A405" s="2">
         <v>43721.83413388487</v>
       </c>
       <c r="B405">
@@ -3625,7 +3611,7 @@
       </c>
     </row>
     <row r="406" spans="1:2">
-      <c r="A406" s="4">
+      <c r="A406" s="2">
         <v>43721.834152194089</v>
       </c>
       <c r="B406">
@@ -3633,7 +3619,7 @@
       </c>
     </row>
     <row r="407" spans="1:2">
-      <c r="A407" s="4">
+      <c r="A407" s="2">
         <v>43721.834169374895</v>
       </c>
       <c r="B407">
@@ -3641,7 +3627,7 @@
       </c>
     </row>
     <row r="408" spans="1:2">
-      <c r="A408" s="4">
+      <c r="A408" s="2">
         <v>43721.834180324455</v>
       </c>
       <c r="B408">
@@ -3649,7 +3635,7 @@
       </c>
     </row>
     <row r="409" spans="1:2">
-      <c r="A409" s="4">
+      <c r="A409" s="2">
         <v>43721.834190023597</v>
       </c>
       <c r="B409">
@@ -3657,7 +3643,7 @@
       </c>
     </row>
     <row r="410" spans="1:2">
-      <c r="A410" s="4">
+      <c r="A410" s="2">
         <v>43721.834200266516</v>
       </c>
       <c r="B410">
@@ -3665,7 +3651,7 @@
       </c>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="4">
+      <c r="A411" s="2">
         <v>43721.834210993147</v>
       </c>
       <c r="B411">
@@ -3673,7 +3659,7 @@
       </c>
     </row>
     <row r="412" spans="1:2">
-      <c r="A412" s="4">
+      <c r="A412" s="2">
         <v>43721.834222284495</v>
       </c>
       <c r="B412">
@@ -3681,7 +3667,7 @@
       </c>
     </row>
     <row r="413" spans="1:2">
-      <c r="A413" s="4">
+      <c r="A413" s="2">
         <v>43721.834260679199</v>
       </c>
       <c r="B413">
@@ -3689,7 +3675,7 @@
       </c>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="4">
+      <c r="A414" s="2">
         <v>43721.834273312241</v>
       </c>
       <c r="B414">
@@ -3697,7 +3683,7 @@
       </c>
     </row>
     <row r="415" spans="1:2">
-      <c r="A415" s="4">
+      <c r="A415" s="2">
         <v>43721.834286233643</v>
       </c>
       <c r="B415">
@@ -3705,7 +3691,7 @@
       </c>
     </row>
     <row r="416" spans="1:2">
-      <c r="A416" s="4">
+      <c r="A416" s="2">
         <v>43721.834297555848</v>
       </c>
       <c r="B416">
@@ -3713,7 +3699,7 @@
       </c>
     </row>
     <row r="417" spans="1:2">
-      <c r="A417" s="4">
+      <c r="A417" s="2">
         <v>43721.834308546269</v>
       </c>
       <c r="B417">
@@ -3721,7 +3707,7 @@
       </c>
     </row>
     <row r="418" spans="1:2">
-      <c r="A418" s="4">
+      <c r="A418" s="2">
         <v>43721.83431975334</v>
       </c>
       <c r="B418">
@@ -3729,7 +3715,7 @@
       </c>
     </row>
     <row r="419" spans="1:2">
-      <c r="A419" s="4">
+      <c r="A419" s="2">
         <v>43721.834331115242</v>
       </c>
       <c r="B419">
@@ -3737,7 +3723,7 @@
       </c>
     </row>
     <row r="420" spans="1:2">
-      <c r="A420" s="4">
+      <c r="A420" s="2">
         <v>43721.834342626273</v>
       </c>
       <c r="B420">
@@ -3745,7 +3731,7 @@
       </c>
     </row>
     <row r="421" spans="1:2">
-      <c r="A421" s="4">
+      <c r="A421" s="2">
         <v>43721.834364626091</v>
       </c>
       <c r="B421">
@@ -3753,7 +3739,7 @@
       </c>
     </row>
     <row r="422" spans="1:2">
-      <c r="A422" s="4">
+      <c r="A422" s="2">
         <v>43721.834375219187</v>
       </c>
       <c r="B422">
@@ -3761,7 +3747,7 @@
       </c>
     </row>
     <row r="423" spans="1:2">
-      <c r="A423" s="4">
+      <c r="A423" s="2">
         <v>43721.834386193543</v>
       </c>
       <c r="B423">
@@ -3769,7 +3755,7 @@
       </c>
     </row>
     <row r="424" spans="1:2">
-      <c r="A424" s="4">
+      <c r="A424" s="2">
         <v>43721.834397402126</v>
       </c>
       <c r="B424">
@@ -3777,7 +3763,7 @@
       </c>
     </row>
     <row r="425" spans="1:2">
-      <c r="A425" s="4">
+      <c r="A425" s="2">
         <v>43721.834409263101</v>
       </c>
       <c r="B425">
@@ -3785,7 +3771,7 @@
       </c>
     </row>
     <row r="426" spans="1:2">
-      <c r="A426" s="4">
+      <c r="A426" s="2">
         <v>43721.83442116098</v>
       </c>
       <c r="B426">
@@ -3793,7 +3779,7 @@
       </c>
     </row>
     <row r="427" spans="1:2">
-      <c r="A427" s="4">
+      <c r="A427" s="2">
         <v>43721.834433153854</v>
       </c>
       <c r="B427">
@@ -3801,7 +3787,7 @@
       </c>
     </row>
     <row r="428" spans="1:2">
-      <c r="A428" s="4">
+      <c r="A428" s="2">
         <v>43721.834447080852</v>
       </c>
       <c r="B428">
@@ -3809,7 +3795,7 @@
       </c>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="4">
+      <c r="A429" s="2">
         <v>43721.834458460216</v>
       </c>
       <c r="B429">
@@ -3817,7 +3803,7 @@
       </c>
     </row>
     <row r="430" spans="1:2">
-      <c r="A430" s="4">
+      <c r="A430" s="2">
         <v>43721.834468702902</v>
       </c>
       <c r="B430">
@@ -3825,7 +3811,7 @@
       </c>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="4">
+      <c r="A431" s="2">
         <v>43721.834479069454</v>
       </c>
       <c r="B431">
@@ -3833,7 +3819,7 @@
       </c>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="4">
+      <c r="A432" s="2">
         <v>43721.834488694789</v>
       </c>
       <c r="B432">
@@ -3841,7 +3827,7 @@
       </c>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="4">
+      <c r="A433" s="2">
         <v>43721.834498449076</v>
       </c>
       <c r="B433">
@@ -3849,7 +3835,7 @@
       </c>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="4">
+      <c r="A434" s="2">
         <v>43721.83450912917</v>
       </c>
       <c r="B434">
@@ -3857,7 +3843,7 @@
       </c>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="4">
+      <c r="A435" s="2">
         <v>43721.834519069409</v>
       </c>
       <c r="B435">
@@ -3865,7 +3851,7 @@
       </c>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="4">
+      <c r="A436" s="2">
         <v>43721.834529410931</v>
       </c>
       <c r="B436">
@@ -3873,7 +3859,7 @@
       </c>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="4">
+      <c r="A437" s="2">
         <v>43721.834539390751</v>
       </c>
       <c r="B437">
@@ -3881,7 +3867,7 @@
       </c>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="4">
+      <c r="A438" s="2">
         <v>43721.834549781051</v>
       </c>
       <c r="B438">
@@ -3889,7 +3875,7 @@
       </c>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="4">
+      <c r="A439" s="2">
         <v>43721.834560833522</v>
       </c>
       <c r="B439">
@@ -3897,7 +3883,7 @@
       </c>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="4">
+      <c r="A440" s="2">
         <v>43721.834572932799</v>
       </c>
       <c r="B440">
@@ -3905,7 +3891,7 @@
       </c>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="4">
+      <c r="A441" s="2">
         <v>43721.834584018565</v>
       </c>
       <c r="B441">
@@ -3913,7 +3899,7 @@
       </c>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="4">
+      <c r="A442" s="2">
         <v>43721.834594635176</v>
       </c>
       <c r="B442">
@@ -3921,7 +3907,7 @@
       </c>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="4">
+      <c r="A443" s="2">
         <v>43721.834971660632</v>
       </c>
       <c r="B443">
@@ -3929,7 +3915,7 @@
       </c>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="4">
+      <c r="A444" s="2">
         <v>43721.8349851073</v>
       </c>
       <c r="B444">
@@ -3937,7 +3923,7 @@
       </c>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="4">
+      <c r="A445" s="2">
         <v>43721.834998862934</v>
       </c>
       <c r="B445">
@@ -3945,7 +3931,7 @@
       </c>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="4">
+      <c r="A446" s="2">
         <v>43721.835118416464</v>
       </c>
       <c r="B446">
@@ -3953,7 +3939,7 @@
       </c>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="4">
+      <c r="A447" s="2">
         <v>43721.835132290726</v>
       </c>
       <c r="B447">
@@ -3961,7 +3947,7 @@
       </c>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="4">
+      <c r="A448" s="2">
         <v>43721.835146614118</v>
       </c>
       <c r="B448">
@@ -3969,7 +3955,7 @@
       </c>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="4">
+      <c r="A449" s="2">
         <v>43721.835161478259</v>
       </c>
       <c r="B449">
@@ -3977,7 +3963,7 @@
       </c>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="4">
+      <c r="A450" s="2">
         <v>43721.835176763125</v>
       </c>
       <c r="B450">
@@ -3985,7 +3971,7 @@
       </c>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="4">
+      <c r="A451" s="2">
         <v>43721.835192776045</v>
       </c>
       <c r="B451">
@@ -3993,7 +3979,7 @@
       </c>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="4">
+      <c r="A452" s="2">
         <v>43721.835215413477</v>
       </c>
       <c r="B452">
@@ -4001,7 +3987,7 @@
       </c>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="4">
+      <c r="A453" s="2">
         <v>43721.835231136181</v>
       </c>
       <c r="B453">
@@ -4009,7 +3995,7 @@
       </c>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="4">
+      <c r="A454" s="2">
         <v>43721.83523847803</v>
       </c>
       <c r="B454">
@@ -4017,7 +4003,7 @@
       </c>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="4">
+      <c r="A455" s="2">
         <v>43721.835246752948</v>
       </c>
       <c r="B455">
@@ -4025,7 +4011,7 @@
       </c>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="4">
+      <c r="A456" s="2">
         <v>43721.835254765931</v>
       </c>
       <c r="B456">
@@ -4033,7 +4019,7 @@
       </c>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="4">
+      <c r="A457" s="2">
         <v>43721.835262977875</v>
       </c>
       <c r="B457">
@@ -4041,7 +4027,7 @@
       </c>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="4">
+      <c r="A458" s="2">
         <v>43721.835271787131</v>
       </c>
       <c r="B458">
@@ -4049,7 +4035,7 @@
       </c>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="4">
+      <c r="A459" s="2">
         <v>43721.835280945874</v>
       </c>
       <c r="B459">
@@ -4057,7 +4043,7 @@
       </c>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="4">
+      <c r="A460" s="2">
         <v>43721.835290547344</v>
       </c>
       <c r="B460">
@@ -4065,7 +4051,7 @@
       </c>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="4">
+      <c r="A461" s="2">
         <v>43721.83530070167</v>
       </c>
       <c r="B461">
@@ -4073,7 +4059,7 @@
       </c>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="4">
+      <c r="A462" s="2">
         <v>43721.835310618735</v>
       </c>
       <c r="B462">
@@ -4081,7 +4067,7 @@
       </c>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="4">
+      <c r="A463" s="2">
         <v>43721.835319919745</v>
       </c>
       <c r="B463">
@@ -4089,7 +4075,7 @@
       </c>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="4">
+      <c r="A464" s="2">
         <v>43721.835328868125</v>
       </c>
       <c r="B464">
@@ -4097,7 +4083,7 @@
       </c>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="4">
+      <c r="A465" s="2">
         <v>43721.835337629891</v>
       </c>
       <c r="B465">
@@ -4105,7 +4091,7 @@
       </c>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="4">
+      <c r="A466" s="2">
         <v>43721.835375975352</v>
       </c>
       <c r="B466">
@@ -4113,7 +4099,7 @@
       </c>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="4">
+      <c r="A467" s="2">
         <v>43721.835386399762</v>
       </c>
       <c r="B467">
@@ -4121,7 +4107,7 @@
       </c>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="4">
+      <c r="A468" s="2">
         <v>43721.835397123003</v>
       </c>
       <c r="B468">
@@ -4129,7 +4115,7 @@
       </c>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="4">
+      <c r="A469" s="2">
         <v>43721.835407662438</v>
       </c>
       <c r="B469">
@@ -4137,7 +4123,7 @@
       </c>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="4">
+      <c r="A470" s="2">
         <v>43721.835417885683</v>
       </c>
       <c r="B470">
@@ -4145,7 +4131,7 @@
       </c>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="4">
+      <c r="A471" s="2">
         <v>43721.83542761358</v>
       </c>
       <c r="B471">
@@ -4153,7 +4139,7 @@
       </c>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="4">
+      <c r="A472" s="2">
         <v>43721.835437252186</v>
       </c>
       <c r="B472">
@@ -4161,7 +4147,7 @@
       </c>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="4">
+      <c r="A473" s="2">
         <v>43721.835455484106</v>
       </c>
       <c r="B473">
@@ -4169,7 +4155,7 @@
       </c>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="4">
+      <c r="A474" s="2">
         <v>43721.835464721546</v>
       </c>
       <c r="B474">
@@ -4177,7 +4163,7 @@
       </c>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="4">
+      <c r="A475" s="2">
         <v>43721.835473784362</v>
       </c>
       <c r="B475">
@@ -4185,7 +4171,7 @@
       </c>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="4">
+      <c r="A476" s="2">
         <v>43721.835483098977</v>
       </c>
       <c r="B476">
@@ -4193,7 +4179,7 @@
       </c>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="4">
+      <c r="A477" s="2">
         <v>43721.835492252605</v>
       </c>
       <c r="B477">
@@ -4201,7 +4187,7 @@
       </c>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="4">
+      <c r="A478" s="2">
         <v>43721.835501290268</v>
       </c>
       <c r="B478">
@@ -4209,7 +4195,7 @@
       </c>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="4">
+      <c r="A479" s="2">
         <v>43721.83551045612</v>
       </c>
       <c r="B479">
@@ -4217,7 +4203,7 @@
       </c>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="4">
+      <c r="A480" s="2">
         <v>43721.835519772605</v>
       </c>
       <c r="B480">
@@ -4225,7 +4211,7 @@
       </c>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="4">
+      <c r="A481" s="2">
         <v>43721.835529676406</v>
       </c>
       <c r="B481">
@@ -4233,7 +4219,7 @@
       </c>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="4">
+      <c r="A482" s="2">
         <v>43721.835539309774</v>
       </c>
       <c r="B482">
@@ -4241,7 +4227,7 @@
       </c>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="4">
+      <c r="A483" s="2">
         <v>43721.835549007752</v>
       </c>
       <c r="B483">
@@ -4249,7 +4235,7 @@
       </c>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="4">
+      <c r="A484" s="2">
         <v>43721.835558553925</v>
       </c>
       <c r="B484">
@@ -4257,7 +4243,7 @@
       </c>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="4">
+      <c r="A485" s="2">
         <v>43721.835567631642</v>
       </c>
       <c r="B485">
@@ -4265,7 +4251,7 @@
       </c>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="4">
+      <c r="A486" s="2">
         <v>43721.835577272694</v>
       </c>
       <c r="B486">
@@ -4273,7 +4259,7 @@
       </c>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="4">
+      <c r="A487" s="2">
         <v>43721.835586864734</v>
       </c>
       <c r="B487">
@@ -4281,7 +4267,7 @@
       </c>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="4">
+      <c r="A488" s="2">
         <v>43721.835595921846</v>
       </c>
       <c r="B488">
@@ -4289,7 +4275,7 @@
       </c>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="4">
+      <c r="A489" s="2">
         <v>43721.835604208631</v>
       </c>
       <c r="B489">
@@ -4297,7 +4283,7 @@
       </c>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="4">
+      <c r="A490" s="2">
         <v>43721.835612001014</v>
       </c>
       <c r="B490">
@@ -4305,7 +4291,7 @@
       </c>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="4">
+      <c r="A491" s="2">
         <v>43721.835620144848</v>
       </c>
       <c r="B491">
@@ -4313,7 +4299,7 @@
       </c>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="4">
+      <c r="A492" s="2">
         <v>43721.835628611618</v>
       </c>
       <c r="B492">
@@ -4321,7 +4307,7 @@
       </c>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="4">
+      <c r="A493" s="2">
         <v>43721.835636687581</v>
       </c>
       <c r="B493">
@@ -4329,7 +4315,7 @@
       </c>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="4">
+      <c r="A494" s="2">
         <v>43721.83564514271</v>
       </c>
       <c r="B494">
@@ -4337,7 +4323,7 @@
       </c>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="4">
+      <c r="A495" s="2">
         <v>43721.835653638351</v>
       </c>
       <c r="B495">
@@ -4345,7 +4331,7 @@
       </c>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="4">
+      <c r="A496" s="2">
         <v>43721.835662098951</v>
       </c>
       <c r="B496">
@@ -4353,7 +4339,7 @@
       </c>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="4">
+      <c r="A497" s="2">
         <v>43721.835670763161</v>
       </c>
       <c r="B497">
@@ -4361,7 +4347,7 @@
       </c>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="4">
+      <c r="A498" s="2">
         <v>43721.835679465556</v>
       </c>
       <c r="B498">
@@ -4369,7 +4355,7 @@
       </c>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="4">
+      <c r="A499" s="2">
         <v>43721.835688504856</v>
       </c>
       <c r="B499">
@@ -4377,7 +4363,7 @@
       </c>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="4">
+      <c r="A500" s="2">
         <v>43721.835697241011</v>
       </c>
       <c r="B500">
@@ -4385,7 +4371,7 @@
       </c>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="4">
+      <c r="A501" s="2">
         <v>43721.835706179729</v>
       </c>
       <c r="B501">
@@ -4393,7 +4379,7 @@
       </c>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="4">
+      <c r="A502" s="2">
         <v>43721.835715277775</v>
       </c>
       <c r="B502">
@@ -4401,7 +4387,7 @@
       </c>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="4">
+      <c r="A503" s="2">
         <v>43721.835724007455</v>
       </c>
       <c r="B503">
@@ -4409,7 +4395,7 @@
       </c>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="4">
+      <c r="A504" s="2">
         <v>43721.835732829524</v>
       </c>
       <c r="B504">
@@ -4417,7 +4403,7 @@
       </c>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="4">
+      <c r="A505" s="2">
         <v>43721.835741555202</v>
       </c>
       <c r="B505">
@@ -4425,7 +4411,7 @@
       </c>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="4">
+      <c r="A506" s="2">
         <v>43721.835750495899</v>
       </c>
       <c r="B506">
@@ -4433,7 +4419,7 @@
       </c>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="4">
+      <c r="A507" s="2">
         <v>43721.835759622394</v>
       </c>
       <c r="B507">
@@ -4441,7 +4427,7 @@
       </c>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="4">
+      <c r="A508" s="2">
         <v>43721.835767783457</v>
       </c>
       <c r="B508">
@@ -4449,7 +4435,7 @@
       </c>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="4">
+      <c r="A509" s="2">
         <v>43721.835775652784</v>
       </c>
       <c r="B509">
@@ -4457,7 +4443,7 @@
       </c>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="4">
+      <c r="A510" s="2">
         <v>43721.835783101153</v>
       </c>
       <c r="B510">
@@ -4465,7 +4451,7 @@
       </c>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="4">
+      <c r="A511" s="2">
         <v>43721.835790520418</v>
       </c>
       <c r="B511">
@@ -4473,7 +4459,7 @@
       </c>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="4">
+      <c r="A512" s="2">
         <v>43721.835798261221</v>
       </c>
       <c r="B512">
@@ -4481,7 +4467,7 @@
       </c>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="4">
+      <c r="A513" s="2">
         <v>43721.835805941839</v>
       </c>
       <c r="B513">
@@ -4489,7 +4475,7 @@
       </c>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="4">
+      <c r="A514" s="2">
         <v>43721.835814111284</v>
       </c>
       <c r="B514">
@@ -4497,7 +4483,7 @@
       </c>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="4">
+      <c r="A515" s="2">
         <v>43721.835822470835</v>
       </c>
       <c r="B515">
@@ -4505,7 +4491,7 @@
       </c>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="4">
+      <c r="A516" s="2">
         <v>43721.835830634576</v>
       </c>
       <c r="B516">
@@ -4513,7 +4499,7 @@
       </c>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="4">
+      <c r="A517" s="2">
         <v>43721.835838566767</v>
       </c>
       <c r="B517">
@@ -4521,7 +4507,7 @@
       </c>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="4">
+      <c r="A518" s="2">
         <v>43721.835846355185</v>
       </c>
       <c r="B518">
@@ -4529,7 +4515,7 @@
       </c>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="4">
+      <c r="A519" s="2">
         <v>43721.83585396305</v>
       </c>
       <c r="B519">
@@ -4537,7 +4523,7 @@
       </c>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="4">
+      <c r="A520" s="2">
         <v>43721.835904700914</v>
       </c>
       <c r="B520">
@@ -4545,7 +4531,7 @@
       </c>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="4">
+      <c r="A521" s="2">
         <v>43721.835912132985</v>
       </c>
       <c r="B521">
@@ -4553,7 +4539,7 @@
       </c>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="4">
+      <c r="A522" s="2">
         <v>43721.835947529995</v>
       </c>
       <c r="B522">
@@ -4561,7 +4547,7 @@
       </c>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="4">
+      <c r="A523" s="2">
         <v>43721.835954745999</v>
       </c>
       <c r="B523">
@@ -4569,7 +4555,7 @@
       </c>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="4">
+      <c r="A524" s="2">
         <v>43721.8360982663</v>
       </c>
       <c r="B524">
@@ -4577,7 +4563,7 @@
       </c>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="4">
+      <c r="A525" s="2">
         <v>43721.836104575661</v>
       </c>
       <c r="B525">
@@ -4585,7 +4571,7 @@
       </c>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="4">
+      <c r="A526" s="2">
         <v>43721.836111739627</v>
       </c>
       <c r="B526">
@@ -4593,7 +4579,7 @@
       </c>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="4">
+      <c r="A527" s="2">
         <v>43721.836118922802</v>
       </c>
       <c r="B527">
@@ -4601,7 +4587,7 @@
       </c>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="4">
+      <c r="A528" s="2">
         <v>43721.836126245209</v>
       </c>
       <c r="B528">
@@ -4609,7 +4595,7 @@
       </c>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="4">
+      <c r="A529" s="2">
         <v>43721.836133814999</v>
       </c>
       <c r="B529">
@@ -4617,7 +4603,7 @@
       </c>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="4">
+      <c r="A530" s="2">
         <v>43721.836141187116</v>
       </c>
       <c r="B530">
@@ -4625,7 +4611,7 @@
       </c>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="4">
+      <c r="A531" s="2">
         <v>43721.836148410686</v>
       </c>
       <c r="B531">
@@ -4633,7 +4619,7 @@
       </c>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="4">
+      <c r="A532" s="2">
         <v>43721.836155617377</v>
       </c>
       <c r="B532">
@@ -4641,7 +4627,7 @@
       </c>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="4">
+      <c r="A533" s="2">
         <v>43721.836162673775</v>
       </c>
       <c r="B533">
@@ -4649,7 +4635,7 @@
       </c>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="4">
+      <c r="A534" s="2">
         <v>43721.836169443093</v>
       </c>
       <c r="B534">
@@ -4657,7 +4643,7 @@
       </c>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="4">
+      <c r="A535" s="2">
         <v>43721.836175707052</v>
       </c>
       <c r="B535">
@@ -4665,7 +4651,7 @@
       </c>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="4">
+      <c r="A536" s="2">
         <v>43721.836181866936</v>
       </c>
       <c r="B536">
@@ -4673,7 +4659,7 @@
       </c>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="4">
+      <c r="A537" s="2">
         <v>43721.836187520879</v>
       </c>
       <c r="B537">
@@ -4681,7 +4667,7 @@
       </c>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="4">
+      <c r="A538" s="2">
         <v>43721.836192798568</v>
       </c>
       <c r="B538">
@@ -4689,7 +4675,7 @@
       </c>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="4">
+      <c r="A539" s="2">
         <v>43721.836197529105</v>
       </c>
       <c r="B539">
@@ -4697,7 +4683,7 @@
       </c>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="4">
+      <c r="A540" s="2">
         <v>43721.836202311679</v>
       </c>
       <c r="B540">
@@ -4705,7 +4691,7 @@
       </c>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="4">
+      <c r="A541" s="2">
         <v>43721.836207548738</v>
       </c>
       <c r="B541">
@@ -4713,7 +4699,7 @@
       </c>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="4">
+      <c r="A542" s="2">
         <v>43721.836212759139</v>
       </c>
       <c r="B542">
@@ -4721,7 +4707,7 @@
       </c>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="4">
+      <c r="A543" s="2">
         <v>43721.836218230426</v>
       </c>
       <c r="B543">
@@ -4729,7 +4715,7 @@
       </c>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="4">
+      <c r="A544" s="2">
         <v>43721.836224437691</v>
       </c>
       <c r="B544">
@@ -4737,7 +4723,7 @@
       </c>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="4">
+      <c r="A545" s="2">
         <v>43721.836230918416</v>
       </c>
       <c r="B545">
@@ -4745,7 +4731,7 @@
       </c>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="4">
+      <c r="A546" s="2">
         <v>43721.836238491233</v>
       </c>
       <c r="B546">
@@ -4753,7 +4739,7 @@
       </c>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="4">
+      <c r="A547" s="2">
         <v>43721.83624522655</v>
       </c>
       <c r="B547">
@@ -4761,7 +4747,7 @@
       </c>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="4">
+      <c r="A548" s="2">
         <v>43721.836251868634</v>
       </c>
       <c r="B548">
@@ -4769,7 +4755,7 @@
       </c>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="4">
+      <c r="A549" s="2">
         <v>43721.836257723742</v>
       </c>
       <c r="B549">
@@ -4777,7 +4763,7 @@
       </c>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="4">
+      <c r="A550" s="2">
         <v>43721.836262708995</v>
       </c>
       <c r="B550">
@@ -4785,7 +4771,7 @@
       </c>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="4">
+      <c r="A551" s="2">
         <v>43721.836267486797</v>
       </c>
       <c r="B551">
@@ -4793,7 +4779,7 @@
       </c>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="4">
+      <c r="A552" s="2">
         <v>43721.836271706386</v>
       </c>
       <c r="B552">
@@ -4801,7 +4787,7 @@
       </c>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="4">
+      <c r="A553" s="2">
         <v>43721.836276240181</v>
       </c>
       <c r="B553">
@@ -4809,7 +4795,7 @@
       </c>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="4">
+      <c r="A554" s="2">
         <v>43721.83628067153</v>
       </c>
       <c r="B554">
@@ -4817,7 +4803,7 @@
       </c>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="4">
+      <c r="A555" s="2">
         <v>43721.836285506492</v>
       </c>
       <c r="B555">
@@ -4825,7 +4811,7 @@
       </c>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="4">
+      <c r="A556" s="2">
         <v>43721.836290632607</v>
       </c>
       <c r="B556">
@@ -4833,7 +4819,7 @@
       </c>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="4">
+      <c r="A557" s="2">
         <v>43721.836296617519</v>
       </c>
       <c r="B557">
@@ -4841,7 +4827,7 @@
       </c>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="4">
+      <c r="A558" s="2">
         <v>43721.836302785552</v>
       </c>
       <c r="B558">
@@ -4849,7 +4835,7 @@
       </c>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="4">
+      <c r="A559" s="2">
         <v>43721.836309725884</v>
       </c>
       <c r="B559">
@@ -4857,7 +4843,7 @@
       </c>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="4">
+      <c r="A560" s="2">
         <v>43721.836317508947</v>
       </c>
       <c r="B560">
@@ -4865,7 +4851,7 @@
       </c>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="4">
+      <c r="A561" s="2">
         <v>43721.836324806558</v>
       </c>
       <c r="B561">
@@ -4873,7 +4859,7 @@
       </c>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="4">
+      <c r="A562" s="2">
         <v>43721.836332148407</v>
       </c>
       <c r="B562">
@@ -4881,7 +4867,7 @@
       </c>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="4">
+      <c r="A563" s="2">
         <v>43721.836338948226</v>
       </c>
       <c r="B563">
@@ -4889,7 +4875,7 @@
       </c>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="4">
+      <c r="A564" s="2">
         <v>43721.836345294367</v>
       </c>
       <c r="B564">
@@ -4897,7 +4883,7 @@
       </c>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="4">
+      <c r="A565" s="2">
         <v>43721.836351032136</v>
       </c>
       <c r="B565">
@@ -4905,7 +4891,7 @@
       </c>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="4">
+      <c r="A566" s="2">
         <v>43721.836356859654</v>
       </c>
       <c r="B566">
@@ -4913,7 +4899,7 @@
       </c>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="4">
+      <c r="A567" s="2">
         <v>43721.836362206959</v>
       </c>
       <c r="B567">
@@ -4921,7 +4907,7 @@
       </c>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="4">
+      <c r="A568" s="2">
         <v>43721.836367226679</v>
       </c>
       <c r="B568">
@@ -4929,7 +4915,7 @@
       </c>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="4">
+      <c r="A569" s="2">
         <v>43721.836372461519</v>
       </c>
       <c r="B569">
@@ -4937,7 +4923,7 @@
       </c>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="4">
+      <c r="A570" s="2">
         <v>43721.836377446423</v>
       </c>
       <c r="B570">
@@ -4945,7 +4931,7 @@
       </c>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="4">
+      <c r="A571" s="2">
         <v>43721.836382939597</v>
       </c>
       <c r="B571">
@@ -4953,7 +4939,7 @@
       </c>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="4">
+      <c r="A572" s="2">
         <v>43721.83638904721</v>
       </c>
       <c r="B572">
@@ -4961,7 +4947,7 @@
       </c>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="4">
+      <c r="A573" s="2">
         <v>43721.836395452963</v>
       </c>
       <c r="B573">
@@ -4969,7 +4955,7 @@
       </c>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="4">
+      <c r="A574" s="2">
         <v>43721.836402298999</v>
       </c>
       <c r="B574">
@@ -4977,7 +4963,7 @@
       </c>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="4">
+      <c r="A575" s="2">
         <v>43721.836416290484</v>
       </c>
       <c r="B575">
@@ -4985,7 +4971,7 @@
       </c>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="4">
+      <c r="A576" s="2">
         <v>43721.836422903929</v>
       </c>
       <c r="B576">
@@ -4993,7 +4979,7 @@
       </c>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="4">
+      <c r="A577" s="2">
         <v>43721.836435845122</v>
       </c>
       <c r="B577">
@@ -5001,7 +4987,7 @@
       </c>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="4">
+      <c r="A578" s="2">
         <v>43721.8364424475</v>
       </c>
       <c r="B578">
@@ -5009,7 +4995,7 @@
       </c>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="4">
+      <c r="A579" s="2">
         <v>43721.836448915303</v>
       </c>
       <c r="B579">
@@ -5017,7 +5003,7 @@
       </c>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="4">
+      <c r="A580" s="2">
         <v>43721.836468291935</v>
       </c>
       <c r="B580">
@@ -5025,7 +5011,7 @@
       </c>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="4">
+      <c r="A581" s="2">
         <v>43721.836475088727</v>
       </c>
       <c r="B581">
@@ -5033,7 +5019,7 @@
       </c>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="4">
+      <c r="A582" s="2">
         <v>43721.836482145016</v>
       </c>
       <c r="B582">
@@ -5041,7 +5027,7 @@
       </c>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="4">
+      <c r="A583" s="2">
         <v>43721.836489664041</v>
       </c>
       <c r="B583">
@@ -5049,7 +5035,7 @@
       </c>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="4">
+      <c r="A584" s="2">
         <v>43721.836497161887</v>
       </c>
       <c r="B584">
@@ -5057,7 +5043,7 @@
       </c>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="4">
+      <c r="A585" s="2">
         <v>43721.836504708976</v>
       </c>
       <c r="B585">
@@ -5065,7 +5051,7 @@
       </c>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="4">
+      <c r="A586" s="2">
         <v>43721.836511517758</v>
       </c>
       <c r="B586">
@@ -5073,7 +5059,7 @@
       </c>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="4">
+      <c r="A587" s="2">
         <v>43721.836518456228</v>
       </c>
       <c r="B587">
@@ -5081,7 +5067,7 @@
       </c>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="4">
+      <c r="A588" s="2">
         <v>43721.836525346276</v>
       </c>
       <c r="B588">
@@ -5089,7 +5075,7 @@
       </c>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="4">
+      <c r="A589" s="2">
         <v>43721.836532212561</v>
       </c>
       <c r="B589">
@@ -5097,7 +5083,7 @@
       </c>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="4">
+      <c r="A590" s="2">
         <v>43721.836538800038</v>
       </c>
       <c r="B590">
@@ -5105,7 +5091,7 @@
       </c>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="4">
+      <c r="A591" s="2">
         <v>43721.836545401369</v>
       </c>
       <c r="B591">
@@ -5113,7 +5099,7 @@
       </c>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="4">
+      <c r="A592" s="2">
         <v>43721.836551989662</v>
       </c>
       <c r="B592">
@@ -5121,7 +5107,7 @@
       </c>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="4">
+      <c r="A593" s="2">
         <v>43721.836558648611</v>
       </c>
       <c r="B593">
@@ -5129,7 +5115,7 @@
       </c>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="4">
+      <c r="A594" s="2">
         <v>43721.836565199425</v>
       </c>
       <c r="B594">
@@ -5137,7 +5123,7 @@
       </c>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="4">
+      <c r="A595" s="2">
         <v>43721.83657184802</v>
       </c>
       <c r="B595">
@@ -5145,7 +5131,7 @@
       </c>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="4">
+      <c r="A596" s="2">
         <v>43721.836578561342</v>
       </c>
       <c r="B596">
@@ -5153,7 +5139,7 @@
       </c>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="4">
+      <c r="A597" s="2">
         <v>43721.836585648824</v>
       </c>
       <c r="B597">
@@ -5161,7 +5147,7 @@
       </c>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="4">
+      <c r="A598" s="2">
         <v>43721.836593088105</v>
       </c>
       <c r="B598">
@@ -5169,7 +5155,7 @@
       </c>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="4">
+      <c r="A599" s="2">
         <v>43721.836601617862</v>
       </c>
       <c r="B599">
@@ -5177,7 +5163,7 @@
       </c>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="4">
+      <c r="A600" s="2">
         <v>43721.836609916645</v>
       </c>
       <c r="B600">
@@ -5185,7 +5171,7 @@
       </c>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="4">
+      <c r="A601" s="2">
         <v>43721.836618466419</v>
       </c>
       <c r="B601">
@@ -5193,7 +5179,7 @@
       </c>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="4">
+      <c r="A602" s="2">
         <v>43721.836626585566</v>
       </c>
       <c r="B602">
@@ -5201,7 +5187,7 @@
       </c>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="4">
+      <c r="A603" s="2">
         <v>43721.836634457111</v>
       </c>
       <c r="B603">
@@ -5209,7 +5195,7 @@
       </c>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="4">
+      <c r="A604" s="2">
         <v>43721.836641794769</v>
       </c>
       <c r="B604">
@@ -5217,7 +5203,7 @@
       </c>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="4">
+      <c r="A605" s="2">
         <v>43721.836649331955</v>
       </c>
       <c r="B605">
@@ -5225,7 +5211,7 @@
       </c>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="4">
+      <c r="A606" s="2">
         <v>43721.836656688713</v>
       </c>
       <c r="B606">
@@ -5233,7 +5219,7 @@
       </c>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="4">
+      <c r="A607" s="2">
         <v>43721.836664030205</v>
       </c>
       <c r="B607">
@@ -5241,7 +5227,7 @@
       </c>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="4">
+      <c r="A608" s="2">
         <v>43721.836671442492</v>
       </c>
       <c r="B608">
@@ -5249,7 +5235,7 @@
       </c>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="4">
+      <c r="A609" s="2">
         <v>43721.836678928106</v>
       </c>
       <c r="B609">
@@ -5257,7 +5243,7 @@
       </c>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="4">
+      <c r="A610" s="2">
         <v>43721.836686547154</v>
       </c>
       <c r="B610">
@@ -5265,7 +5251,7 @@
       </c>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="4">
+      <c r="A611" s="2">
         <v>43721.836693976074</v>
       </c>
       <c r="B611">
@@ -5273,7 +5259,7 @@
       </c>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="4">
+      <c r="A612" s="2">
         <v>43721.836701161337</v>
       </c>
       <c r="B612">
@@ -5281,7 +5267,7 @@
       </c>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="4">
+      <c r="A613" s="2">
         <v>43721.836708176765</v>
       </c>
       <c r="B613">
@@ -5289,7 +5275,7 @@
       </c>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="4">
+      <c r="A614" s="2">
         <v>43721.836714874022</v>
       </c>
       <c r="B614">
@@ -5297,7 +5283,7 @@
       </c>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="4">
+      <c r="A615" s="2">
         <v>43721.836735278717</v>
       </c>
       <c r="B615">
@@ -5305,7 +5291,7 @@
       </c>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="4">
+      <c r="A616" s="2">
         <v>43721.836741977721</v>
       </c>
       <c r="B616">
@@ -5313,7 +5299,7 @@
       </c>
     </row>
     <row r="617" spans="1:2">
-      <c r="A617" s="4">
+      <c r="A617" s="2">
         <v>43721.836748882895</v>
       </c>
       <c r="B617">
@@ -5321,7 +5307,7 @@
       </c>
     </row>
     <row r="618" spans="1:2">
-      <c r="A618" s="4">
+      <c r="A618" s="2">
         <v>43721.836755538825</v>
       </c>
       <c r="B618">
@@ -5329,7 +5315,7 @@
       </c>
     </row>
     <row r="619" spans="1:2">
-      <c r="A619" s="4">
+      <c r="A619" s="2">
         <v>43721.836761991144</v>
       </c>
       <c r="B619">
@@ -5337,7 +5323,7 @@
       </c>
     </row>
     <row r="620" spans="1:2">
-      <c r="A620" s="4">
+      <c r="A620" s="2">
         <v>43721.83676821657</v>
       </c>
       <c r="B620">
@@ -5345,7 +5331,7 @@
       </c>
     </row>
     <row r="621" spans="1:2">
-      <c r="A621" s="4">
+      <c r="A621" s="2">
         <v>43721.836774584837</v>
       </c>
       <c r="B621">
@@ -5353,7 +5339,7 @@
       </c>
     </row>
     <row r="622" spans="1:2">
-      <c r="A622" s="4">
+      <c r="A622" s="2">
         <v>43721.836823863676</v>
       </c>
       <c r="B622">
@@ -5361,7 +5347,7 @@
       </c>
     </row>
     <row r="623" spans="1:2">
-      <c r="A623" s="4">
+      <c r="A623" s="2">
         <v>43721.836836848874</v>
       </c>
       <c r="B623">
@@ -5369,7 +5355,7 @@
       </c>
     </row>
     <row r="624" spans="1:2">
-      <c r="A624" s="4">
+      <c r="A624" s="2">
         <v>43721.836842350196</v>
       </c>
       <c r="B624">
@@ -5377,7 +5363,7 @@
       </c>
     </row>
     <row r="625" spans="1:2">
-      <c r="A625" s="4">
+      <c r="A625" s="2">
         <v>43721.836853264133</v>
       </c>
       <c r="B625">
@@ -5385,7 +5371,7 @@
       </c>
     </row>
     <row r="626" spans="1:2">
-      <c r="A626" s="4">
+      <c r="A626" s="2">
         <v>43721.83685844671</v>
       </c>
       <c r="B626">
@@ -5393,7 +5379,7 @@
       </c>
     </row>
     <row r="627" spans="1:2">
-      <c r="A627" s="4">
+      <c r="A627" s="2">
         <v>43721.836869151797</v>
       </c>
       <c r="B627">
@@ -5401,7 +5387,7 @@
       </c>
     </row>
     <row r="628" spans="1:2">
-      <c r="A628" s="4">
+      <c r="A628" s="2">
         <v>43721.836874681991</v>
       </c>
       <c r="B628">
@@ -5409,7 +5395,7 @@
       </c>
     </row>
     <row r="629" spans="1:2">
-      <c r="A629" s="4">
+      <c r="A629" s="2">
         <v>43721.836880604387</v>
       </c>
       <c r="B629">
@@ -5417,7 +5403,7 @@
       </c>
     </row>
     <row r="630" spans="1:2">
-      <c r="A630" s="4">
+      <c r="A630" s="2">
         <v>43721.836887210375</v>
       </c>
       <c r="B630">
@@ -5425,7 +5411,7 @@
       </c>
     </row>
     <row r="631" spans="1:2">
-      <c r="A631" s="4">
+      <c r="A631" s="2">
         <v>43721.836894246168</v>
       </c>
       <c r="B631">
@@ -5433,7 +5419,7 @@
       </c>
     </row>
     <row r="632" spans="1:2">
-      <c r="A632" s="4">
+      <c r="A632" s="2">
         <v>43721.836902144365</v>
       </c>
       <c r="B632">
@@ -5441,7 +5427,7 @@
       </c>
     </row>
     <row r="633" spans="1:2">
-      <c r="A633" s="4">
+      <c r="A633" s="2">
         <v>43721.836909359903</v>
       </c>
       <c r="B633">
@@ -5449,7 +5435,7 @@
       </c>
     </row>
     <row r="634" spans="1:2">
-      <c r="A634" s="4">
+      <c r="A634" s="2">
         <v>43721.836916653556</v>
       </c>
       <c r="B634">
@@ -5457,7 +5443,7 @@
       </c>
     </row>
     <row r="635" spans="1:2">
-      <c r="A635" s="4">
+      <c r="A635" s="2">
         <v>43721.836923182935</v>
       </c>
       <c r="B635">
@@ -5465,7 +5451,7 @@
       </c>
     </row>
     <row r="636" spans="1:2">
-      <c r="A636" s="4">
+      <c r="A636" s="2">
         <v>43721.836929512443</v>
       </c>
       <c r="B636">
@@ -5473,7 +5459,7 @@
       </c>
     </row>
     <row r="637" spans="1:2">
-      <c r="A637" s="4">
+      <c r="A637" s="2">
         <v>43721.836998332292</v>
       </c>
       <c r="B637">
@@ -5481,7 +5467,7 @@
       </c>
     </row>
     <row r="638" spans="1:2">
-      <c r="A638" s="4">
+      <c r="A638" s="2">
         <v>43721.837005194975</v>
       </c>
       <c r="B638">
@@ -5489,7 +5475,7 @@
       </c>
     </row>
     <row r="639" spans="1:2">
-      <c r="A639" s="4">
+      <c r="A639" s="2">
         <v>43721.837012134609</v>
       </c>
       <c r="B639">
@@ -5497,7 +5483,7 @@
       </c>
     </row>
     <row r="640" spans="1:2">
-      <c r="A640" s="4">
+      <c r="A640" s="2">
         <v>43721.837019115221</v>
       </c>
       <c r="B640">
@@ -5505,7 +5491,7 @@
       </c>
     </row>
     <row r="641" spans="1:2">
-      <c r="A641" s="4">
+      <c r="A641" s="2">
         <v>43721.837025904213</v>
       </c>
       <c r="B641">
@@ -5513,7 +5499,7 @@
       </c>
     </row>
     <row r="642" spans="1:2">
-      <c r="A642" s="4">
+      <c r="A642" s="2">
         <v>43721.837033294141</v>
       </c>
       <c r="B642">
@@ -5521,7 +5507,7 @@
       </c>
     </row>
     <row r="643" spans="1:2">
-      <c r="A643" s="4">
+      <c r="A643" s="2">
         <v>43721.837040543556</v>
       </c>
       <c r="B643">
@@ -5529,7 +5515,7 @@
       </c>
     </row>
     <row r="644" spans="1:2">
-      <c r="A644" s="4">
+      <c r="A644" s="2">
         <v>43721.837061448954</v>
       </c>
       <c r="B644">
@@ -5537,7 +5523,7 @@
       </c>
     </row>
     <row r="645" spans="1:2">
-      <c r="A645" s="4">
+      <c r="A645" s="2">
         <v>43721.837068223045</v>
       </c>
       <c r="B645">
@@ -5545,7 +5531,7 @@
       </c>
     </row>
     <row r="646" spans="1:2">
-      <c r="A646" s="4">
+      <c r="A646" s="2">
         <v>43721.83707500482</v>
       </c>
       <c r="B646">
@@ -5553,7 +5539,7 @@
       </c>
     </row>
     <row r="647" spans="1:2">
-      <c r="A647" s="4">
+      <c r="A647" s="2">
         <v>43721.837096537347</v>
       </c>
       <c r="B647">
@@ -5561,7 +5547,7 @@
       </c>
     </row>
     <row r="648" spans="1:2">
-      <c r="A648" s="4">
+      <c r="A648" s="2">
         <v>43721.84027453803</v>
       </c>
       <c r="B648">
@@ -5569,7 +5555,7 @@
       </c>
     </row>
     <row r="649" spans="1:2">
-      <c r="A649" s="4">
+      <c r="A649" s="2">
         <v>43721.840288118459</v>
       </c>
       <c r="B649">
@@ -5577,7 +5563,7 @@
       </c>
     </row>
     <row r="650" spans="1:2">
-      <c r="A650" s="4">
+      <c r="A650" s="2">
         <v>43721.840300734038</v>
       </c>
       <c r="B650">
@@ -5585,7 +5571,7 @@
       </c>
     </row>
     <row r="651" spans="1:2">
-      <c r="A651" s="4">
+      <c r="A651" s="2">
         <v>43721.840309892897</v>
       </c>
       <c r="B651">
@@ -5593,7 +5579,7 @@
       </c>
     </row>
     <row r="652" spans="1:2">
-      <c r="A652" s="4">
+      <c r="A652" s="2">
         <v>43721.84033274604</v>
       </c>
       <c r="B652">
@@ -5601,7 +5587,7 @@
       </c>
     </row>
     <row r="653" spans="1:2">
-      <c r="A653" s="4">
+      <c r="A653" s="2">
         <v>43721.840341092786</v>
       </c>
       <c r="B653">
@@ -5609,7 +5595,7 @@
       </c>
     </row>
     <row r="654" spans="1:2">
-      <c r="A654" s="4">
+      <c r="A654" s="2">
         <v>43721.840351078543</v>
       </c>
       <c r="B654">
@@ -5617,2011 +5603,11 @@
       </c>
     </row>
     <row r="655" spans="1:2">
-      <c r="A655" s="4">
+      <c r="A655" s="2">
         <v>43721.840364463278</v>
       </c>
       <c r="B655">
         <v>474.3184894323349</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2">
-      <c r="A656" s="2">
-        <v>43721.834998862934</v>
-      </c>
-      <c r="B656">
-        <v>1155.143603682518</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2">
-      <c r="A657" s="2">
-        <v>43721.835012232652</v>
-      </c>
-      <c r="B657">
-        <v>4523.632675409317</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2">
-      <c r="A658" s="2">
-        <v>43721.835064589512</v>
-      </c>
-      <c r="B658">
-        <v>4650.6486833095551</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2">
-      <c r="A659" s="2">
-        <v>43721.835118416464</v>
-      </c>
-      <c r="B659">
-        <v>1198.7362056970596</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2">
-      <c r="A660" s="2">
-        <v>43721.835132290726</v>
-      </c>
-      <c r="B660">
-        <v>1237.541064620018</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2">
-      <c r="A661" s="2">
-        <v>43721.835146614118</v>
-      </c>
-      <c r="B661">
-        <v>1284.2617928981781</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2">
-      <c r="A662" s="2">
-        <v>43721.835161478259</v>
-      </c>
-      <c r="B662">
-        <v>1320.6124305725098</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2">
-      <c r="A663" s="2">
-        <v>43721.835176763125</v>
-      </c>
-      <c r="B663">
-        <v>1383.516937494278</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2">
-      <c r="A664" s="2">
-        <v>43721.835192776045</v>
-      </c>
-      <c r="B664">
-        <v>1955.8735191822052</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2">
-      <c r="A665" s="2">
-        <v>43721.835215413477</v>
-      </c>
-      <c r="B665">
-        <v>1358.441635966301</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2">
-      <c r="A666" s="2">
-        <v>43721.835231136181</v>
-      </c>
-      <c r="B666">
-        <v>634.3357264995575</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2">
-      <c r="A667" s="2">
-        <v>43721.83523847803</v>
-      </c>
-      <c r="B667">
-        <v>714.95287120342255</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2">
-      <c r="A668" s="2">
-        <v>43721.835246752948</v>
-      </c>
-      <c r="B668">
-        <v>692.32173264026642</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2">
-      <c r="A669" s="2">
-        <v>43721.835254765931</v>
-      </c>
-      <c r="B669">
-        <v>709.51133966445923</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2">
-      <c r="A670" s="2">
-        <v>43721.835262977875</v>
-      </c>
-      <c r="B670">
-        <v>761.12039387226105</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2">
-      <c r="A671" s="2">
-        <v>43721.835271787131</v>
-      </c>
-      <c r="B671">
-        <v>791.31536185741425</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2">
-      <c r="A672" s="2">
-        <v>43721.835280945874</v>
-      </c>
-      <c r="B672">
-        <v>829.56701517105103</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2">
-      <c r="A673" s="2">
-        <v>43721.835290547344</v>
-      </c>
-      <c r="B673">
-        <v>877.33380496501923</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2">
-      <c r="A674" s="2">
-        <v>43721.83530070167</v>
-      </c>
-      <c r="B674">
-        <v>856.8350225687027</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2">
-      <c r="A675" s="2">
-        <v>43721.835310618735</v>
-      </c>
-      <c r="B675">
-        <v>803.60658466815948</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2">
-      <c r="A676" s="2">
-        <v>43721.835319919745</v>
-      </c>
-      <c r="B676">
-        <v>773.14004302024841</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2">
-      <c r="A677" s="2">
-        <v>43721.835328868125</v>
-      </c>
-      <c r="B677">
-        <v>757.0166140794754</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2">
-      <c r="A678" s="2">
-        <v>43721.835337629891</v>
-      </c>
-      <c r="B678">
-        <v>807.86123871803284</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2">
-      <c r="A679" s="2">
-        <v>43721.835346980137</v>
-      </c>
-      <c r="B679">
-        <v>2505.1865726709366</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2">
-      <c r="A680" s="2">
-        <v>43721.835375975352</v>
-      </c>
-      <c r="B680">
-        <v>900.66902339458466</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2">
-      <c r="A681" s="2">
-        <v>43721.835386399762</v>
-      </c>
-      <c r="B681">
-        <v>926.48863792419434</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2">
-      <c r="A682" s="2">
-        <v>43721.835397123003</v>
-      </c>
-      <c r="B682">
-        <v>910.60660779476166</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2">
-      <c r="A683" s="2">
-        <v>43721.835407662438</v>
-      </c>
-      <c r="B683">
-        <v>883.28830897808075</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2">
-      <c r="A684" s="2">
-        <v>43721.835417885683</v>
-      </c>
-      <c r="B684">
-        <v>840.49031138420105</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2">
-      <c r="A685" s="2">
-        <v>43721.83542761358</v>
-      </c>
-      <c r="B685">
-        <v>832.77560770511627</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2">
-      <c r="A686" s="2">
-        <v>43721.835437252186</v>
-      </c>
-      <c r="B686">
-        <v>1575.2378851175308</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2">
-      <c r="A687" s="2">
-        <v>43721.835455484106</v>
-      </c>
-      <c r="B687">
-        <v>798.11476171016693</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2">
-      <c r="A688" s="2">
-        <v>43721.835464721546</v>
-      </c>
-      <c r="B688">
-        <v>783.02733600139618</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2">
-      <c r="A689" s="2">
-        <v>43721.835473784362</v>
-      </c>
-      <c r="B689">
-        <v>804.7834038734436</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2">
-      <c r="A690" s="2">
-        <v>43721.835483098977</v>
-      </c>
-      <c r="B690">
-        <v>790.87279736995697</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2">
-      <c r="A691" s="2">
-        <v>43721.835492252605</v>
-      </c>
-      <c r="B691">
-        <v>780.85474669933319</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2">
-      <c r="A692" s="2">
-        <v>43721.835501290268</v>
-      </c>
-      <c r="B692">
-        <v>791.92891716957092</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2">
-      <c r="A693" s="2">
-        <v>43721.83551045612</v>
-      </c>
-      <c r="B693">
-        <v>804.94433641433716</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2">
-      <c r="A694" s="2">
-        <v>43721.835519772605</v>
-      </c>
-      <c r="B694">
-        <v>855.68837821483612</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2">
-      <c r="A695" s="2">
-        <v>43721.835529676406</v>
-      </c>
-      <c r="B695">
-        <v>832.32298493385315</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2">
-      <c r="A696" s="2">
-        <v>43721.835539309774</v>
-      </c>
-      <c r="B696">
-        <v>837.90533244609833</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2">
-      <c r="A697" s="2">
-        <v>43721.835549007752</v>
-      </c>
-      <c r="B697">
-        <v>824.78933036327362</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2">
-      <c r="A698" s="2">
-        <v>43721.835558553925</v>
-      </c>
-      <c r="B698">
-        <v>784.31479632854462</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2">
-      <c r="A699" s="2">
-        <v>43721.835567631642</v>
-      </c>
-      <c r="B699">
-        <v>832.98683166503906</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2">
-      <c r="A700" s="2">
-        <v>43721.835577272694</v>
-      </c>
-      <c r="B700">
-        <v>828.7522941827774</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2">
-      <c r="A701" s="2">
-        <v>43721.835586864734</v>
-      </c>
-      <c r="B701">
-        <v>782.53448009490967</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2">
-      <c r="A702" s="2">
-        <v>43721.835595921846</v>
-      </c>
-      <c r="B702">
-        <v>715.97881615161896</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2">
-      <c r="A703" s="2">
-        <v>43721.835604208631</v>
-      </c>
-      <c r="B703">
-        <v>673.26128482818604</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2">
-      <c r="A704" s="2">
-        <v>43721.835612001014</v>
-      </c>
-      <c r="B704">
-        <v>703.62724363803864</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2">
-      <c r="A705" s="2">
-        <v>43721.835620144848</v>
-      </c>
-      <c r="B705">
-        <v>731.52892291545868</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2">
-      <c r="A706" s="2">
-        <v>43721.835628611618</v>
-      </c>
-      <c r="B706">
-        <v>697.76326417922974</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2">
-      <c r="A707" s="2">
-        <v>43721.835636687581</v>
-      </c>
-      <c r="B707">
-        <v>730.52309453487396</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2">
-      <c r="A708" s="2">
-        <v>43721.83564514271</v>
-      </c>
-      <c r="B708">
-        <v>734.02337729930878</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2">
-      <c r="A709" s="2">
-        <v>43721.835653638351</v>
-      </c>
-      <c r="B709">
-        <v>730.99583387374878</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2">
-      <c r="A710" s="2">
-        <v>43721.835662098951</v>
-      </c>
-      <c r="B710">
-        <v>748.58777225017548</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2">
-      <c r="A711" s="2">
-        <v>43721.835670763161</v>
-      </c>
-      <c r="B711">
-        <v>751.88688933849335</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2">
-      <c r="A712" s="2">
-        <v>43721.835679465556</v>
-      </c>
-      <c r="B712">
-        <v>780.99556267261505</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2">
-      <c r="A713" s="2">
-        <v>43721.835688504856</v>
-      </c>
-      <c r="B713">
-        <v>754.80379164218903</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2">
-      <c r="A714" s="2">
-        <v>43721.835697241011</v>
-      </c>
-      <c r="B714">
-        <v>772.3052054643631</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2">
-      <c r="A715" s="2">
-        <v>43721.835706179729</v>
-      </c>
-      <c r="B715">
-        <v>786.07499599456787</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2">
-      <c r="A716" s="2">
-        <v>43721.835715277775</v>
-      </c>
-      <c r="B716">
-        <v>754.24052774906158</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2">
-      <c r="A717" s="2">
-        <v>43721.835724007455</v>
-      </c>
-      <c r="B717">
-        <v>762.22680509090424</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2">
-      <c r="A718" s="2">
-        <v>43721.835732829524</v>
-      </c>
-      <c r="B718">
-        <v>753.89854609966278</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2">
-      <c r="A719" s="2">
-        <v>43721.835741555202</v>
-      </c>
-      <c r="B719">
-        <v>772.4761962890625</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2">
-      <c r="A720" s="2">
-        <v>43721.835750495899</v>
-      </c>
-      <c r="B720">
-        <v>788.52921724319458</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2">
-      <c r="A721" s="2">
-        <v>43721.835759622394</v>
-      </c>
-      <c r="B721">
-        <v>705.11586964130402</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2">
-      <c r="A722" s="2">
-        <v>43721.835767783457</v>
-      </c>
-      <c r="B722">
-        <v>679.90981042385101</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2">
-      <c r="A723" s="2">
-        <v>43721.835775652784</v>
-      </c>
-      <c r="B723">
-        <v>643.53905618190765</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2">
-      <c r="A724" s="2">
-        <v>43721.835783101153</v>
-      </c>
-      <c r="B724">
-        <v>641.02448523044586</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2">
-      <c r="A725" s="2">
-        <v>43721.835790520418</v>
-      </c>
-      <c r="B725">
-        <v>668.80546510219574</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2">
-      <c r="A726" s="2">
-        <v>43721.835798261221</v>
-      </c>
-      <c r="B726">
-        <v>663.60533237457275</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2">
-      <c r="A727" s="2">
-        <v>43721.835805941839</v>
-      </c>
-      <c r="B727">
-        <v>705.84006607532501</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2">
-      <c r="A728" s="2">
-        <v>43721.835814111284</v>
-      </c>
-      <c r="B728">
-        <v>722.26524353027344</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2">
-      <c r="A729" s="2">
-        <v>43721.835822470835</v>
-      </c>
-      <c r="B729">
-        <v>705.3472101688385</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2">
-      <c r="A730" s="2">
-        <v>43721.835830634576</v>
-      </c>
-      <c r="B730">
-        <v>685.34128367900848</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2">
-      <c r="A731" s="2">
-        <v>43721.835838566767</v>
-      </c>
-      <c r="B731">
-        <v>672.91930317878723</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2">
-      <c r="A732" s="2">
-        <v>43721.835846355185</v>
-      </c>
-      <c r="B732">
-        <v>657.31890499591827</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2">
-      <c r="A733" s="2">
-        <v>43721.83585396305</v>
-      </c>
-      <c r="B733">
-        <v>1297.9511171579361</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2">
-      <c r="A734" s="2">
-        <v>43721.835868985625</v>
-      </c>
-      <c r="B734">
-        <v>3085.8010053634644</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2">
-      <c r="A735" s="2">
-        <v>43721.835904700914</v>
-      </c>
-      <c r="B735">
-        <v>642.13089644908905</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2">
-      <c r="A736" s="2">
-        <v>43721.835912132985</v>
-      </c>
-      <c r="B736">
-        <v>630.72480261325836</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2">
-      <c r="A737" s="2">
-        <v>43721.835919433041</v>
-      </c>
-      <c r="B737">
-        <v>2427.5768548250198</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2">
-      <c r="A738" s="2">
-        <v>43721.835947529995</v>
-      </c>
-      <c r="B738">
-        <v>623.46272170543671</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2">
-      <c r="A739" s="2">
-        <v>43721.835954745999</v>
-      </c>
-      <c r="B739">
-        <v>1357.3452830314636</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2">
-      <c r="A740" s="2">
-        <v>43721.835970456013</v>
-      </c>
-      <c r="B740">
-        <v>11042.8087413311</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2">
-      <c r="A741" s="2">
-        <v>43721.8360982663</v>
-      </c>
-      <c r="B741">
-        <v>545.12880742549896</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2">
-      <c r="A742" s="2">
-        <v>43721.836104575661</v>
-      </c>
-      <c r="B742">
-        <v>618.96666884422302</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2">
-      <c r="A743" s="2">
-        <v>43721.836111739627</v>
-      </c>
-      <c r="B743">
-        <v>620.62628567218781</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2">
-      <c r="A744" s="2">
-        <v>43721.836118922802</v>
-      </c>
-      <c r="B744">
-        <v>632.65599310398102</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2">
-      <c r="A745" s="2">
-        <v>43721.836126245209</v>
-      </c>
-      <c r="B745">
-        <v>654.02984619140625</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2">
-      <c r="A746" s="2">
-        <v>43721.836133814999</v>
-      </c>
-      <c r="B746">
-        <v>636.95088028907776</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2">
-      <c r="A747" s="2">
-        <v>43721.836141187116</v>
-      </c>
-      <c r="B747">
-        <v>624.11651015281677</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2">
-      <c r="A748" s="2">
-        <v>43721.836148410686</v>
-      </c>
-      <c r="B748">
-        <v>622.65805900096893</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2">
-      <c r="A749" s="2">
-        <v>43721.836155617377</v>
-      </c>
-      <c r="B749">
-        <v>609.67281460762024</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2">
-      <c r="A750" s="2">
-        <v>43721.836162673775</v>
-      </c>
-      <c r="B750">
-        <v>584.86908674240112</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2">
-      <c r="A751" s="2">
-        <v>43721.836169443093</v>
-      </c>
-      <c r="B751">
-        <v>541.20607674121857</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2">
-      <c r="A752" s="2">
-        <v>43721.836175707052</v>
-      </c>
-      <c r="B752">
-        <v>532.2139710187912</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2">
-      <c r="A753" s="2">
-        <v>43721.836181866936</v>
-      </c>
-      <c r="B753">
-        <v>488.50066959857941</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2">
-      <c r="A754" s="2">
-        <v>43721.836187520879</v>
-      </c>
-      <c r="B754">
-        <v>455.99229633808136</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2">
-      <c r="A755" s="2">
-        <v>43721.836192798568</v>
-      </c>
-      <c r="B755">
-        <v>408.71836245059967</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2">
-      <c r="A756" s="2">
-        <v>43721.836197529105</v>
-      </c>
-      <c r="B756">
-        <v>413.21441531181335</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2">
-      <c r="A757" s="2">
-        <v>43721.836202311679</v>
-      </c>
-      <c r="B757">
-        <v>452.4819552898407</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2">
-      <c r="A758" s="2">
-        <v>43721.836207548738</v>
-      </c>
-      <c r="B758">
-        <v>450.1786082983017</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2">
-      <c r="A759" s="2">
-        <v>43721.836212759139</v>
-      </c>
-      <c r="B759">
-        <v>472.7192223072052</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2">
-      <c r="A760" s="2">
-        <v>43721.836218230426</v>
-      </c>
-      <c r="B760">
-        <v>536.307692527771</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2">
-      <c r="A761" s="2">
-        <v>43721.836224437691</v>
-      </c>
-      <c r="B761">
-        <v>559.93460118770599</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2">
-      <c r="A762" s="2">
-        <v>43721.836230918416</v>
-      </c>
-      <c r="B762">
-        <v>654.29136157035828</v>
-      </c>
-    </row>
-    <row r="763" spans="1:2">
-      <c r="A763" s="2">
-        <v>43721.836238491233</v>
-      </c>
-      <c r="B763">
-        <v>581.93206787109375</v>
-      </c>
-    </row>
-    <row r="764" spans="1:2">
-      <c r="A764" s="2">
-        <v>43721.83624522655</v>
-      </c>
-      <c r="B764">
-        <v>573.87538254261017</v>
-      </c>
-    </row>
-    <row r="765" spans="1:2">
-      <c r="A765" s="2">
-        <v>43721.836251868634</v>
-      </c>
-      <c r="B765">
-        <v>505.88138401508331</v>
-      </c>
-    </row>
-    <row r="766" spans="1:2">
-      <c r="A766" s="2">
-        <v>43721.836257723742</v>
-      </c>
-      <c r="B766">
-        <v>430.72588741779327</v>
-      </c>
-    </row>
-    <row r="767" spans="1:2">
-      <c r="A767" s="2">
-        <v>43721.836262708995</v>
-      </c>
-      <c r="B767">
-        <v>412.80202567577362</v>
-      </c>
-    </row>
-    <row r="768" spans="1:2">
-      <c r="A768" s="2">
-        <v>43721.836267486797</v>
-      </c>
-      <c r="B768">
-        <v>364.57255482673645</v>
-      </c>
-    </row>
-    <row r="769" spans="1:2">
-      <c r="A769" s="2">
-        <v>43721.836271706386</v>
-      </c>
-      <c r="B769">
-        <v>391.71986281871796</v>
-      </c>
-    </row>
-    <row r="770" spans="1:2">
-      <c r="A770" s="2">
-        <v>43721.836276240181</v>
-      </c>
-      <c r="B770">
-        <v>382.86857306957245</v>
-      </c>
-    </row>
-    <row r="771" spans="1:2">
-      <c r="A771" s="2">
-        <v>43721.83628067153</v>
-      </c>
-      <c r="B771">
-        <v>417.74064302444458</v>
-      </c>
-    </row>
-    <row r="772" spans="1:2">
-      <c r="A772" s="2">
-        <v>43721.836285506492</v>
-      </c>
-      <c r="B772">
-        <v>442.89641082286835</v>
-      </c>
-    </row>
-    <row r="773" spans="1:2">
-      <c r="A773" s="2">
-        <v>43721.836290632607</v>
-      </c>
-      <c r="B773">
-        <v>517.09637045860291</v>
-      </c>
-    </row>
-    <row r="774" spans="1:2">
-      <c r="A774" s="2">
-        <v>43721.836296617519</v>
-      </c>
-      <c r="B774">
-        <v>532.9180508852005</v>
-      </c>
-    </row>
-    <row r="775" spans="1:2">
-      <c r="A775" s="2">
-        <v>43721.836302785552</v>
-      </c>
-      <c r="B775">
-        <v>599.64470565319061</v>
-      </c>
-    </row>
-    <row r="776" spans="1:2">
-      <c r="A776" s="2">
-        <v>43721.836309725884</v>
-      </c>
-      <c r="B776">
-        <v>672.45662212371826</v>
-      </c>
-    </row>
-    <row r="777" spans="1:2">
-      <c r="A777" s="2">
-        <v>43721.836317508947</v>
-      </c>
-      <c r="B777">
-        <v>630.51357865333557</v>
-      </c>
-    </row>
-    <row r="778" spans="1:2">
-      <c r="A778" s="2">
-        <v>43721.836324806558</v>
-      </c>
-      <c r="B778">
-        <v>634.3357264995575</v>
-      </c>
-    </row>
-    <row r="779" spans="1:2">
-      <c r="A779" s="2">
-        <v>43721.836332148407</v>
-      </c>
-      <c r="B779">
-        <v>587.50435709953308</v>
-      </c>
-    </row>
-    <row r="780" spans="1:2">
-      <c r="A780" s="2">
-        <v>43721.836338948226</v>
-      </c>
-      <c r="B780">
-        <v>548.30722510814667</v>
-      </c>
-    </row>
-    <row r="781" spans="1:2">
-      <c r="A781" s="2">
-        <v>43721.836345294367</v>
-      </c>
-      <c r="B781">
-        <v>495.74263393878937</v>
-      </c>
-    </row>
-    <row r="782" spans="1:2">
-      <c r="A782" s="2">
-        <v>43721.836351032136</v>
-      </c>
-      <c r="B782">
-        <v>503.49757075309753</v>
-      </c>
-    </row>
-    <row r="783" spans="1:2">
-      <c r="A783" s="2">
-        <v>43721.836356859654</v>
-      </c>
-      <c r="B783">
-        <v>462.00715005397797</v>
-      </c>
-    </row>
-    <row r="784" spans="1:2">
-      <c r="A784" s="2">
-        <v>43721.836362206959</v>
-      </c>
-      <c r="B784">
-        <v>433.70313942432404</v>
-      </c>
-    </row>
-    <row r="785" spans="1:2">
-      <c r="A785" s="2">
-        <v>43721.836367226679</v>
-      </c>
-      <c r="B785">
-        <v>452.2908478975296</v>
-      </c>
-    </row>
-    <row r="786" spans="1:2">
-      <c r="A786" s="2">
-        <v>43721.836372461519</v>
-      </c>
-      <c r="B786">
-        <v>430.69571256637573</v>
-      </c>
-    </row>
-    <row r="787" spans="1:2">
-      <c r="A787" s="2">
-        <v>43721.836377446423</v>
-      </c>
-      <c r="B787">
-        <v>474.61017966270447</v>
-      </c>
-    </row>
-    <row r="788" spans="1:2">
-      <c r="A788" s="2">
-        <v>43721.836382939597</v>
-      </c>
-      <c r="B788">
-        <v>527.69780158996582</v>
-      </c>
-    </row>
-    <row r="789" spans="1:2">
-      <c r="A789" s="2">
-        <v>43721.83638904721</v>
-      </c>
-      <c r="B789">
-        <v>553.45706641674042</v>
-      </c>
-    </row>
-    <row r="790" spans="1:2">
-      <c r="A790" s="2">
-        <v>43721.836395452963</v>
-      </c>
-      <c r="B790">
-        <v>591.49749577045441</v>
-      </c>
-    </row>
-    <row r="791" spans="1:2">
-      <c r="A791" s="2">
-        <v>43721.836402298999</v>
-      </c>
-      <c r="B791">
-        <v>1208.8648974895477</v>
-      </c>
-    </row>
-    <row r="792" spans="1:2">
-      <c r="A792" s="2">
-        <v>43721.836416290484</v>
-      </c>
-      <c r="B792">
-        <v>571.40104472637177</v>
-      </c>
-    </row>
-    <row r="793" spans="1:2">
-      <c r="A793" s="2">
-        <v>43721.836422903929</v>
-      </c>
-      <c r="B793">
-        <v>1118.1190609931946</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2">
-      <c r="A794" s="2">
-        <v>43721.836435845122</v>
-      </c>
-      <c r="B794">
-        <v>570.44550776481628</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2">
-      <c r="A795" s="2">
-        <v>43721.8364424475</v>
-      </c>
-      <c r="B795">
-        <v>558.81813168525696</v>
-      </c>
-    </row>
-    <row r="796" spans="1:2">
-      <c r="A796" s="2">
-        <v>43721.836448915303</v>
-      </c>
-      <c r="B796">
-        <v>1674.140989780426</v>
-      </c>
-    </row>
-    <row r="797" spans="1:2">
-      <c r="A797" s="2">
-        <v>43721.836468291935</v>
-      </c>
-      <c r="B797">
-        <v>587.24284172058105</v>
-      </c>
-    </row>
-    <row r="798" spans="1:2">
-      <c r="A798" s="2">
-        <v>43721.836475088727</v>
-      </c>
-      <c r="B798">
-        <v>609.66275632381439</v>
-      </c>
-    </row>
-    <row r="799" spans="1:2">
-      <c r="A799" s="2">
-        <v>43721.836482145016</v>
-      </c>
-      <c r="B799">
-        <v>649.64443445205688</v>
-      </c>
-    </row>
-    <row r="800" spans="1:2">
-      <c r="A800" s="2">
-        <v>43721.836489664041</v>
-      </c>
-      <c r="B800">
-        <v>647.8138267993927</v>
-      </c>
-    </row>
-    <row r="801" spans="1:2">
-      <c r="A801" s="2">
-        <v>43721.836497161887</v>
-      </c>
-      <c r="B801">
-        <v>652.06848084926605</v>
-      </c>
-    </row>
-    <row r="802" spans="1:2">
-      <c r="A802" s="2">
-        <v>43721.836504708976</v>
-      </c>
-      <c r="B802">
-        <v>588.27884495258331</v>
-      </c>
-    </row>
-    <row r="803" spans="1:2">
-      <c r="A803" s="2">
-        <v>43721.836511517758</v>
-      </c>
-      <c r="B803">
-        <v>599.48377311229706</v>
-      </c>
-    </row>
-    <row r="804" spans="1:2">
-      <c r="A804" s="2">
-        <v>43721.836518456228</v>
-      </c>
-      <c r="B804">
-        <v>595.29952704906464</v>
-      </c>
-    </row>
-    <row r="805" spans="1:2">
-      <c r="A805" s="2">
-        <v>43721.836525346276</v>
-      </c>
-      <c r="B805">
-        <v>593.24763715267181</v>
-      </c>
-    </row>
-    <row r="806" spans="1:2">
-      <c r="A806" s="2">
-        <v>43721.836532212561</v>
-      </c>
-      <c r="B806">
-        <v>569.15804743766785</v>
-      </c>
-    </row>
-    <row r="807" spans="1:2">
-      <c r="A807" s="2">
-        <v>43721.836538800038</v>
-      </c>
-      <c r="B807">
-        <v>570.35498321056366</v>
-      </c>
-    </row>
-    <row r="808" spans="1:2">
-      <c r="A808" s="2">
-        <v>43721.836545401369</v>
-      </c>
-      <c r="B808">
-        <v>569.22845542430878</v>
-      </c>
-    </row>
-    <row r="809" spans="1:2">
-      <c r="A809" s="2">
-        <v>43721.836551989662</v>
-      </c>
-      <c r="B809">
-        <v>575.33383369445801</v>
-      </c>
-    </row>
-    <row r="810" spans="1:2">
-      <c r="A810" s="2">
-        <v>43721.836558648611</v>
-      </c>
-      <c r="B810">
-        <v>565.98968803882599</v>
-      </c>
-    </row>
-    <row r="811" spans="1:2">
-      <c r="A811" s="2">
-        <v>43721.836565199425</v>
-      </c>
-      <c r="B811">
-        <v>574.43864643573761</v>
-      </c>
-    </row>
-    <row r="812" spans="1:2">
-      <c r="A812" s="2">
-        <v>43721.83657184802</v>
-      </c>
-      <c r="B812">
-        <v>580.03105223178864</v>
-      </c>
-    </row>
-    <row r="813" spans="1:2">
-      <c r="A813" s="2">
-        <v>43721.836578561342</v>
-      </c>
-      <c r="B813">
-        <v>612.35837638378143</v>
-      </c>
-    </row>
-    <row r="814" spans="1:2">
-      <c r="A814" s="2">
-        <v>43721.836585648824</v>
-      </c>
-      <c r="B814">
-        <v>642.75451004505157</v>
-      </c>
-    </row>
-    <row r="815" spans="1:2">
-      <c r="A815" s="2">
-        <v>43721.836593088105</v>
-      </c>
-      <c r="B815">
-        <v>736.970454454422</v>
-      </c>
-    </row>
-    <row r="816" spans="1:2">
-      <c r="A816" s="2">
-        <v>43721.836601617862</v>
-      </c>
-      <c r="B816">
-        <v>717.01481938362122</v>
-      </c>
-    </row>
-    <row r="817" spans="1:2">
-      <c r="A817" s="2">
-        <v>43721.836609916645</v>
-      </c>
-      <c r="B817">
-        <v>738.70047926902771</v>
-      </c>
-    </row>
-    <row r="818" spans="1:2">
-      <c r="A818" s="2">
-        <v>43721.836618466419</v>
-      </c>
-      <c r="B818">
-        <v>701.49488747119904</v>
-      </c>
-    </row>
-    <row r="819" spans="1:2">
-      <c r="A819" s="2">
-        <v>43721.836626585566</v>
-      </c>
-      <c r="B819">
-        <v>680.10091781616211</v>
-      </c>
-    </row>
-    <row r="820" spans="1:2">
-      <c r="A820" s="2">
-        <v>43721.836634457111</v>
-      </c>
-      <c r="B820">
-        <v>633.973628282547</v>
-      </c>
-    </row>
-    <row r="821" spans="1:2">
-      <c r="A821" s="2">
-        <v>43721.836641794769</v>
-      </c>
-      <c r="B821">
-        <v>651.21352672576904</v>
-      </c>
-    </row>
-    <row r="822" spans="1:2">
-      <c r="A822" s="2">
-        <v>43721.836649331955</v>
-      </c>
-      <c r="B822">
-        <v>635.62318682670593</v>
-      </c>
-    </row>
-    <row r="823" spans="1:2">
-      <c r="A823" s="2">
-        <v>43721.836656688713</v>
-      </c>
-      <c r="B823">
-        <v>634.30555164813995</v>
-      </c>
-    </row>
-    <row r="824" spans="1:2">
-      <c r="A824" s="2">
-        <v>43721.836664030205</v>
-      </c>
-      <c r="B824">
-        <v>640.42098820209503</v>
-      </c>
-    </row>
-    <row r="825" spans="1:2">
-      <c r="A825" s="2">
-        <v>43721.836671442492</v>
-      </c>
-      <c r="B825">
-        <v>646.75770699977875</v>
-      </c>
-    </row>
-    <row r="826" spans="1:2">
-      <c r="A826" s="2">
-        <v>43721.836678928106</v>
-      </c>
-      <c r="B826">
-        <v>658.2845002412796</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2">
-      <c r="A827" s="2">
-        <v>43721.836686547154</v>
-      </c>
-      <c r="B827">
-        <v>641.85932278633118</v>
-      </c>
-    </row>
-    <row r="828" spans="1:2">
-      <c r="A828" s="2">
-        <v>43721.836693976074</v>
-      </c>
-      <c r="B828">
-        <v>620.80733478069305</v>
-      </c>
-    </row>
-    <row r="829" spans="1:2">
-      <c r="A829" s="2">
-        <v>43721.836701161337</v>
-      </c>
-      <c r="B829">
-        <v>606.13229870796204</v>
-      </c>
-    </row>
-    <row r="830" spans="1:2">
-      <c r="A830" s="2">
-        <v>43721.836708176765</v>
-      </c>
-      <c r="B830">
-        <v>578.64300906658173</v>
-      </c>
-    </row>
-    <row r="831" spans="1:2">
-      <c r="A831" s="2">
-        <v>43721.836714874022</v>
-      </c>
-      <c r="B831">
-        <v>1762.9656940698624</v>
-      </c>
-    </row>
-    <row r="832" spans="1:2">
-      <c r="A832" s="2">
-        <v>43721.836735278717</v>
-      </c>
-      <c r="B832">
-        <v>578.79388332366943</v>
-      </c>
-    </row>
-    <row r="833" spans="1:2">
-      <c r="A833" s="2">
-        <v>43721.836741977721</v>
-      </c>
-      <c r="B833">
-        <v>596.60710394382477</v>
-      </c>
-    </row>
-    <row r="834" spans="1:2">
-      <c r="A834" s="2">
-        <v>43721.836748882895</v>
-      </c>
-      <c r="B834">
-        <v>575.07231831550598</v>
-      </c>
-    </row>
-    <row r="835" spans="1:2">
-      <c r="A835" s="2">
-        <v>43721.836755538825</v>
-      </c>
-      <c r="B835">
-        <v>557.48037993907928</v>
-      </c>
-    </row>
-    <row r="836" spans="1:2">
-      <c r="A836" s="2">
-        <v>43721.836761991144</v>
-      </c>
-      <c r="B836">
-        <v>537.87678480148315</v>
-      </c>
-    </row>
-    <row r="837" spans="1:2">
-      <c r="A837" s="2">
-        <v>43721.83676821657</v>
-      </c>
-      <c r="B837">
-        <v>550.21829903125763</v>
-      </c>
-    </row>
-    <row r="838" spans="1:2">
-      <c r="A838" s="2">
-        <v>43721.836774584837</v>
-      </c>
-      <c r="B838">
-        <v>584.54722166061401</v>
-      </c>
-    </row>
-    <row r="839" spans="1:2">
-      <c r="A839" s="2">
-        <v>43721.83678135043</v>
-      </c>
-      <c r="B839">
-        <v>3673.1444299221039</v>
-      </c>
-    </row>
-    <row r="840" spans="1:2">
-      <c r="A840" s="2">
-        <v>43721.836823863676</v>
-      </c>
-      <c r="B840">
-        <v>1106.1999946832657</v>
-      </c>
-    </row>
-    <row r="841" spans="1:2">
-      <c r="A841" s="2">
-        <v>43721.836836666916</v>
-      </c>
-      <c r="B841">
-        <v>15.721097588539124</v>
-      </c>
-    </row>
-    <row r="842" spans="1:2">
-      <c r="A842" s="2">
-        <v>43721.836836848874</v>
-      </c>
-      <c r="B842">
-        <v>475.31425952911377</v>
-      </c>
-    </row>
-    <row r="843" spans="1:2">
-      <c r="A843" s="2">
-        <v>43721.836842350196</v>
-      </c>
-      <c r="B843">
-        <v>926.69986188411713</v>
-      </c>
-    </row>
-    <row r="844" spans="1:2">
-      <c r="A844" s="2">
-        <v>43721.836853075889</v>
-      </c>
-      <c r="B844">
-        <v>16.264244914054871</v>
-      </c>
-    </row>
-    <row r="845" spans="1:2">
-      <c r="A845" s="2">
-        <v>43721.836853264133</v>
-      </c>
-      <c r="B845">
-        <v>447.77467846870422</v>
-      </c>
-    </row>
-    <row r="846" spans="1:2">
-      <c r="A846" s="2">
-        <v>43721.83685844671</v>
-      </c>
-      <c r="B846">
-        <v>924.91954565048218</v>
-      </c>
-    </row>
-    <row r="847" spans="1:2">
-      <c r="A847" s="2">
-        <v>43721.836869151797</v>
-      </c>
-      <c r="B847">
-        <v>477.80871391296387</v>
-      </c>
-    </row>
-    <row r="848" spans="1:2">
-      <c r="A848" s="2">
-        <v>43721.836874681991</v>
-      </c>
-      <c r="B848">
-        <v>511.69507205486298</v>
-      </c>
-    </row>
-    <row r="849" spans="1:2">
-      <c r="A849" s="2">
-        <v>43721.836880604387</v>
-      </c>
-      <c r="B849">
-        <v>570.75731456279755</v>
-      </c>
-    </row>
-    <row r="850" spans="1:2">
-      <c r="A850" s="2">
-        <v>43721.836887210375</v>
-      </c>
-      <c r="B850">
-        <v>607.89249837398529</v>
-      </c>
-    </row>
-    <row r="851" spans="1:2">
-      <c r="A851" s="2">
-        <v>43721.836894246168</v>
-      </c>
-      <c r="B851">
-        <v>682.40426480770111</v>
-      </c>
-    </row>
-    <row r="852" spans="1:2">
-      <c r="A852" s="2">
-        <v>43721.836902144365</v>
-      </c>
-      <c r="B852">
-        <v>623.42248857021332</v>
-      </c>
-    </row>
-    <row r="853" spans="1:2">
-      <c r="A853" s="2">
-        <v>43721.836909359903</v>
-      </c>
-      <c r="B853">
-        <v>630.17159700393677</v>
-      </c>
-    </row>
-    <row r="854" spans="1:2">
-      <c r="A854" s="2">
-        <v>43721.836916653556</v>
-      </c>
-      <c r="B854">
-        <v>564.13896381855011</v>
-      </c>
-    </row>
-    <row r="855" spans="1:2">
-      <c r="A855" s="2">
-        <v>43721.836923182935</v>
-      </c>
-      <c r="B855">
-        <v>546.86889052391052</v>
-      </c>
-    </row>
-    <row r="856" spans="1:2">
-      <c r="A856" s="2">
-        <v>43721.836929512443</v>
-      </c>
-      <c r="B856">
-        <v>557.92294442653656</v>
-      </c>
-    </row>
-    <row r="857" spans="1:2">
-      <c r="A857" s="2">
-        <v>43721.836935969885</v>
-      </c>
-      <c r="B857">
-        <v>5388.1119936704636</v>
-      </c>
-    </row>
-    <row r="858" spans="1:2">
-      <c r="A858" s="2">
-        <v>43721.836998332292</v>
-      </c>
-      <c r="B858">
-        <v>592.93583035469055</v>
-      </c>
-    </row>
-    <row r="859" spans="1:2">
-      <c r="A859" s="2">
-        <v>43721.837005194975</v>
-      </c>
-      <c r="B859">
-        <v>599.58435595035553</v>
-      </c>
-    </row>
-    <row r="860" spans="1:2">
-      <c r="A860" s="2">
-        <v>43721.837012134609</v>
-      </c>
-      <c r="B860">
-        <v>603.12487185001373</v>
-      </c>
-    </row>
-    <row r="861" spans="1:2">
-      <c r="A861" s="2">
-        <v>43721.837019115221</v>
-      </c>
-      <c r="B861">
-        <v>586.56893670558929</v>
-      </c>
-    </row>
-    <row r="862" spans="1:2">
-      <c r="A862" s="2">
-        <v>43721.837025904213</v>
-      </c>
-      <c r="B862">
-        <v>638.48979771137238</v>
-      </c>
-    </row>
-    <row r="863" spans="1:2">
-      <c r="A863" s="2">
-        <v>43721.837033294141</v>
-      </c>
-      <c r="B863">
-        <v>626.34944915771484</v>
-      </c>
-    </row>
-    <row r="864" spans="1:2">
-      <c r="A864" s="2">
-        <v>43721.837040543556</v>
-      </c>
-      <c r="B864">
-        <v>1806.226372718811</v>
-      </c>
-    </row>
-    <row r="865" spans="1:2">
-      <c r="A865" s="2">
-        <v>43721.837061448954</v>
-      </c>
-      <c r="B865">
-        <v>585.28147637844086</v>
-      </c>
-    </row>
-    <row r="866" spans="1:2">
-      <c r="A866" s="2">
-        <v>43721.837068223045</v>
-      </c>
-      <c r="B866">
-        <v>585.94532310962677</v>
-      </c>
-    </row>
-    <row r="867" spans="1:2">
-      <c r="A867" s="2">
-        <v>43721.83707500482</v>
-      </c>
-      <c r="B867">
-        <v>1860.4103475809097</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2">
-      <c r="A868" s="2">
-        <v>43721.837096537347</v>
-      </c>
-      <c r="B868">
-        <v>1208.8045477867126</v>
-      </c>
-    </row>
-    <row r="869" spans="1:2">
-      <c r="A869" s="2">
-        <v>43721.83711052814</v>
-      </c>
-      <c r="B869">
-        <v>5211.6695791482925</v>
-      </c>
-    </row>
-    <row r="870" spans="1:2">
-      <c r="A870" s="2">
-        <v>43721.83717084839</v>
-      </c>
-      <c r="B870">
-        <v>55753.821507096291</v>
-      </c>
-    </row>
-    <row r="871" spans="1:2">
-      <c r="A871" s="2">
-        <v>43721.837816147243</v>
-      </c>
-      <c r="B871">
-        <v>30786.203965544701</v>
-      </c>
-    </row>
-    <row r="872" spans="1:2">
-      <c r="A872" s="2">
-        <v>43721.838172469055</v>
-      </c>
-      <c r="B872">
-        <v>56893.555819988251</v>
-      </c>
-    </row>
-    <row r="873" spans="1:2">
-      <c r="A873" s="2">
-        <v>43721.838830959277</v>
-      </c>
-      <c r="B873">
-        <v>16432.640701532364</v>
-      </c>
-    </row>
-    <row r="874" spans="1:2">
-      <c r="A874" s="2">
-        <v>43721.839021151885</v>
-      </c>
-      <c r="B874">
-        <v>2844.1809117794037</v>
-      </c>
-    </row>
-    <row r="875" spans="1:2">
-      <c r="A875" s="2">
-        <v>43721.839054070646</v>
-      </c>
-      <c r="B875">
-        <v>2925.9346425533295</v>
-      </c>
-    </row>
-    <row r="876" spans="1:2">
-      <c r="A876" s="2">
-        <v>43721.83908793563</v>
-      </c>
-      <c r="B876">
-        <v>2991.3235455751419</v>
-      </c>
-    </row>
-    <row r="877" spans="1:2">
-      <c r="A877" s="2">
-        <v>43721.839122557431</v>
-      </c>
-      <c r="B877">
-        <v>3129.9769878387451</v>
-      </c>
-    </row>
-    <row r="878" spans="1:2">
-      <c r="A878" s="2">
-        <v>43721.839158784016</v>
-      </c>
-      <c r="B878">
-        <v>3165.2413308620453</v>
-      </c>
-    </row>
-    <row r="879" spans="1:2">
-      <c r="A879" s="2">
-        <v>43721.839195418761</v>
-      </c>
-      <c r="B879">
-        <v>3198.1118023395538</v>
-      </c>
-    </row>
-    <row r="880" spans="1:2">
-      <c r="A880" s="2">
-        <v>43721.839232433937</v>
-      </c>
-      <c r="B880">
-        <v>3468.8808023929596</v>
-      </c>
-    </row>
-    <row r="881" spans="1:2">
-      <c r="A881" s="2">
-        <v>43721.83927258302</v>
-      </c>
-      <c r="B881">
-        <v>3323.1060951948166</v>
-      </c>
-    </row>
-    <row r="882" spans="1:2">
-      <c r="A882" s="2">
-        <v>43721.839311044896</v>
-      </c>
-      <c r="B882">
-        <v>6328.9940357208252</v>
-      </c>
-    </row>
-    <row r="883" spans="1:2">
-      <c r="A883" s="2">
-        <v>43721.839384297142</v>
-      </c>
-      <c r="B883">
-        <v>71315.756812691689</v>
-      </c>
-    </row>
-    <row r="884" spans="1:2">
-      <c r="A884" s="2">
-        <v>43721.840209710994</v>
-      </c>
-      <c r="B884">
-        <v>2809.9223971366882</v>
-      </c>
-    </row>
-    <row r="885" spans="1:2">
-      <c r="A885" s="2">
-        <v>43721.840242233244</v>
-      </c>
-      <c r="B885">
-        <v>2731.7091822624207</v>
-      </c>
-    </row>
-    <row r="886" spans="1:2">
-      <c r="A886" s="2">
-        <v>43721.840273850248</v>
-      </c>
-      <c r="B886">
-        <v>59.424340724945068</v>
-      </c>
-    </row>
-    <row r="887" spans="1:2">
-      <c r="A887" s="2">
-        <v>43721.84027453803</v>
-      </c>
-      <c r="B887">
-        <v>1173.3490973711014</v>
-      </c>
-    </row>
-    <row r="888" spans="1:2">
-      <c r="A888" s="2">
-        <v>43721.840288118459</v>
-      </c>
-      <c r="B888">
-        <v>892.71292090415955</v>
-      </c>
-    </row>
-    <row r="889" spans="1:2">
-      <c r="A889" s="2">
-        <v>43721.840298450777</v>
-      </c>
-      <c r="B889">
-        <v>197.27312028408051</v>
-      </c>
-    </row>
-    <row r="890" spans="1:2">
-      <c r="A890" s="2">
-        <v>43721.840300734038</v>
-      </c>
-      <c r="B890">
-        <v>718.5034453868866</v>
-      </c>
-    </row>
-    <row r="891" spans="1:2">
-      <c r="A891" s="2">
-        <v>43721.840309050051</v>
-      </c>
-      <c r="B891">
-        <v>72.821974754333496</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2">
-      <c r="A892" s="2">
-        <v>43721.840309892897</v>
-      </c>
-      <c r="B892">
-        <v>1754.959300160408</v>
-      </c>
-    </row>
-    <row r="893" spans="1:2">
-      <c r="A893" s="2">
-        <v>43721.840330204926</v>
-      </c>
-      <c r="B893">
-        <v>73.707103729248047</v>
-      </c>
-    </row>
-    <row r="894" spans="1:2">
-      <c r="A894" s="2">
-        <v>43721.840331058025</v>
-      </c>
-      <c r="B894">
-        <v>145.84511518478394</v>
-      </c>
-    </row>
-    <row r="895" spans="1:2">
-      <c r="A895" s="2">
-        <v>43721.84033274604</v>
-      </c>
-      <c r="B895">
-        <v>647.21032977104187</v>
-      </c>
-    </row>
-    <row r="896" spans="1:2">
-      <c r="A896" s="2">
-        <v>43721.8403402369</v>
-      </c>
-      <c r="B896">
-        <v>73.948502540588379</v>
-      </c>
-    </row>
-    <row r="897" spans="1:2">
-      <c r="A897" s="2">
-        <v>43721.840341092786</v>
-      </c>
-      <c r="B897">
-        <v>862.76941001415253</v>
-      </c>
-    </row>
-    <row r="898" spans="1:2">
-      <c r="A898" s="2">
-        <v>43721.840351078543</v>
-      </c>
-      <c r="B898">
-        <v>1156.4411222934723</v>
-      </c>
-    </row>
-    <row r="899" spans="1:2">
-      <c r="A899" s="2">
-        <v>43721.840364463278</v>
-      </c>
-      <c r="B899">
-        <v>474.3184894323349</v>
-      </c>
-    </row>
-    <row r="900" spans="1:2">
-      <c r="A900" s="2">
-        <v>43721.840369953075</v>
-      </c>
-      <c r="B900">
-        <v>2374.4892328977585</v>
-      </c>
-    </row>
-    <row r="901" spans="1:2">
-      <c r="A901" s="2">
-        <v>43721.84039743559</v>
-      </c>
-      <c r="B901">
-        <v>6159.4013124704361</v>
-      </c>
-    </row>
-    <row r="902" spans="1:2">
-      <c r="A902" s="2">
-        <v>43721.840468724949</v>
-      </c>
-      <c r="B902">
-        <v>64.362958073616028</v>
-      </c>
-    </row>
-    <row r="903" spans="1:2">
-      <c r="A903" s="2">
-        <v>43721.840469469898</v>
-      </c>
-      <c r="B903">
-        <v>3081.6569924354553</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2">
-      <c r="A904" s="2">
-        <v>43721.840505137225</v>
-      </c>
-      <c r="B904">
-        <v>3270.0184732675552</v>
-      </c>
-    </row>
-    <row r="905" spans="1:2">
-      <c r="A905" s="2">
-        <v>43721.840542984661</v>
-      </c>
-      <c r="B905">
-        <v>4894.1899091005325</v>
       </c>
     </row>
   </sheetData>
